--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Università di Napoli Federico II\Main\_my_aircraft_design\FlightLoads\MATLab\v013-input\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A5C70-E668-4F1C-A52F-73E2C2B80E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC8F7B0-1CA4-428C-A06E-FCC3404E1C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1253,7 +1253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1285,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1478,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1571,6 +1579,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1887,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,423 +2093,427 @@
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>29</v>
+      <c r="A16" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="41">
+        <v>0</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="19">
-        <v>13.4</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="21"/>
+      <c r="A17" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="41">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="19">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="21"/>
+      <c r="A18" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="A19" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="45">
+        <v>0.23</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="19">
-        <f>B10/B17</f>
-        <v>33.582089552238806</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
+      <c r="A20" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="45">
+        <v>0.26</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="A21" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="45">
         <v>0.25</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="21"/>
+      <c r="A22" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="45">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="19">
-        <v>0.4375</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="21"/>
+      <c r="A23" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="45">
+        <v>0</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.4375</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="A24" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="47">
+        <v>0.33</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B26" s="19">
+        <v>13.4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="19">
+        <v>9.6199999999999992</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B28" s="19">
+        <v>1.5</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="22">
-        <f>(B18^2)/B17</f>
-        <v>6.9062985074626848</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="19">
+        <f>B10/B26</f>
+        <v>33.582089552238806</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="22">
-        <v>-14</v>
+        <v>38</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.25</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="22">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.125</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="22">
+        <f>(B27^2)/B26</f>
+        <v>6.9062985074626848</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="22">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B41" s="22">
         <v>0</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="22">
-        <v>-1.5</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="22">
-        <v>-1.5</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="22">
-        <v>-1.5</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="22">
-        <v>-1.5</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B42" s="22">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B43" s="22">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B44" s="22">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B45" s="22">
-        <v>4.9000000000000002E-2</v>
+        <v>-1.5</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B46" s="22">
-        <v>0.4</v>
+        <v>-1.5</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B47" s="22">
-        <v>0.12</v>
+        <v>-1.5</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B48" s="22">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B49" s="22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B50" s="22">
-        <v>1.6379999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>33</v>
@@ -2509,843 +2522,839 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="22">
+        <v>0.12</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="22">
+        <v>0</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="22">
+        <v>0</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="22">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B60" s="22">
         <v>0</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="C60" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B61" s="23">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="25" t="s">
+      <c r="C61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="65">
+        <v>6.3</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="66"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="65">
+        <v>2.5</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="66"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="65">
+        <v>1.4</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="66"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="66"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="26">
-        <v>4</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="27"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="28">
-        <v>74.569999999999993</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="26">
-        <v>5800</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="27"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="28">
-        <v>2.4285999999999999</v>
-      </c>
-      <c r="C57" s="26" t="s">
+      <c r="D69" s="66"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="66"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="68">
+        <v>1.97</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="68">
+        <v>2.9</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="69"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="68">
+        <v>0.68</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="69"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="68">
+        <v>0.68</v>
+      </c>
+      <c r="C74" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="69"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" s="68">
+        <v>3.78</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="69"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="68">
+        <v>0</v>
+      </c>
+      <c r="C76" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="69"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C77" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="69"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="C78" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="69"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="68">
+        <v>0</v>
+      </c>
+      <c r="C79" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="69"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="C80" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" s="69"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="69"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="68">
+        <v>6</v>
+      </c>
+      <c r="C82" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="69"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" s="68">
+        <v>0</v>
+      </c>
+      <c r="C83" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="69"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="C84" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="69"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="68">
+        <v>1.49</v>
+      </c>
+      <c r="C85" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="69"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="C86" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="27"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="28">
-        <f>B55*0.9</f>
-        <v>67.113</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="27"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="26">
-        <v>5500</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="26">
-        <v>1.33</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="28">
+      <c r="D86" s="69"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="68">
+        <v>0</v>
+      </c>
+      <c r="C87" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="69"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" s="68">
+        <v>0</v>
+      </c>
+      <c r="C88" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="69"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="68">
+        <v>1</v>
+      </c>
+      <c r="C89" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" s="69"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="70">
+        <v>0</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="69"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="54">
+        <v>0.72</v>
+      </c>
+      <c r="C91" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" s="54">
+        <v>1.23</v>
+      </c>
+      <c r="C92" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="55"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" s="54">
+        <v>1</v>
+      </c>
+      <c r="C93" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="55"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="54">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C94" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="55"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" s="54">
+        <v>0.68</v>
+      </c>
+      <c r="C95" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="55"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" s="54">
+        <v>3.2</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="55"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" s="54">
         <v>15</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="28">
-        <v>75</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="26">
+      <c r="C97" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="55"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" s="54">
+        <v>0</v>
+      </c>
+      <c r="C98" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="55"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" s="54">
+        <v>0</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="55"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" s="54">
+        <v>0.2335363</v>
+      </c>
+      <c r="C100" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="55"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" s="54">
+        <v>2</v>
+      </c>
+      <c r="C101" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="55"/>
+    </row>
+    <row r="102" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="54">
+        <v>0</v>
+      </c>
+      <c r="C102" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="55"/>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" s="54">
+        <v>0</v>
+      </c>
+      <c r="C103" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="55"/>
+    </row>
+    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="54">
+        <v>0</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="55"/>
+    </row>
+    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="C105" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" s="55"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="54">
+        <v>0</v>
+      </c>
+      <c r="C106" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D106" s="55"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="54">
         <v>1</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="29"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="29"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="26">
+      <c r="C107" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="55"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="54">
+        <v>1</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="55"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" s="54">
+        <v>15</v>
+      </c>
+      <c r="C109" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="55"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="54">
+        <v>20</v>
+      </c>
+      <c r="C110" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="55"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" s="54">
         <v>0</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="26">
-        <v>35</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="26">
-        <v>70</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="29"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="29"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="30">
-        <v>60</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="29"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="31">
-        <v>1.66</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="31">
-        <v>2</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="33"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" s="34">
-        <v>98.1</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="31">
-        <v>1</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="33"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="35">
-        <v>0.66</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="33"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="36">
-        <v>1.55</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="36">
-        <v>1.9</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="37"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="37"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="36">
-        <v>-1</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" s="37"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="36">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="37"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82" s="36">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="37"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="36">
+      <c r="C111" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="55"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" s="56">
         <v>0</v>
       </c>
-      <c r="C83" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="37"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="36">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="37"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B85" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="37"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="36">
-        <v>0.8</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="37"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="37"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="36">
-        <v>1.3878999999999999</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="37"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B89" s="36">
-        <v>-1.6541E-2</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="37"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="36">
-        <v>0</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="37"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="36">
-        <v>-0.16969999999999999</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="37"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="36">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92" s="37"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="36">
-        <v>-0.41</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="37"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B94" s="36">
-        <v>-0.46100000000000002</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="37"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="36">
-        <v>-0.26900000000000002</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="37"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="36">
-        <v>-0.45</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" s="37"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="36">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="37"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="36">
-        <v>30</v>
-      </c>
-      <c r="C98" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="37"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" s="36">
-        <v>25</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D99" s="37"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="36">
-        <v>25</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="37"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B101" s="36">
-        <v>25</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="37"/>
-    </row>
-    <row r="102" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="37"/>
-    </row>
-    <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B103" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D103" s="37"/>
-    </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104" s="37"/>
-    </row>
-    <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B105" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="C105" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D105" s="36"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="41">
-        <v>0</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="41">
-        <v>2000</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="42"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="43">
-        <v>4000</v>
-      </c>
-      <c r="C108" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="42"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" s="45">
-        <v>0.23</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="45">
-        <v>0.26</v>
-      </c>
-      <c r="C110" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="46"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B111" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="C111" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="46"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="45">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="C112" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D112" s="46"/>
+      <c r="C112" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="55"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B113" s="45">
-        <v>0</v>
-      </c>
-      <c r="C113" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="46"/>
+      <c r="A113" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="50">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" s="47">
-        <v>0.33</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="46"/>
+      <c r="A114" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="50">
+        <v>1.97</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="51"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="C115" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>156</v>
-      </c>
+      <c r="A115" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="50">
+        <f>(B27/2)*B117</f>
+        <v>2.4199109999999999</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="51"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="50" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B116" s="50">
-        <v>0.71399999999999997</v>
+        <f>(B27/2)*B118</f>
+        <v>4.3900869999999994</v>
       </c>
       <c r="C116" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>158</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D116" s="51"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B117" s="50">
-        <v>1.97</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D117" s="51"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B118" s="50">
-        <f>(B18/2)*B120</f>
-        <v>2.4199109999999999</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D118" s="51"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B119" s="50">
-        <f>(B18/2)*B121</f>
-        <v>4.3900869999999994</v>
+        <f>B123</f>
+        <v>0.39004</v>
       </c>
       <c r="C119" s="50" t="s">
         <v>33</v>
@@ -3354,22 +3363,23 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B120" s="50">
-        <v>0.50309999999999999</v>
+        <f>B123</f>
+        <v>0.39004</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D120" s="51"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B121" s="50">
-        <v>0.91269999999999996</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C121" s="50" t="s">
         <v>50</v>
@@ -3378,23 +3388,22 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B122" s="50">
-        <f>B126</f>
-        <v>0.39004</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D122" s="51"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B123" s="50">
-        <f>B126</f>
+        <f>B52*B121</f>
         <v>0.39004</v>
       </c>
       <c r="C123" s="50" t="s">
@@ -3404,123 +3413,122 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B124" s="50">
-        <v>0.27860000000000001</v>
+        <f>B52*B122</f>
+        <v>0.39004</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D124" s="51"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B125" s="50">
-        <v>0.27860000000000001</v>
+        <v>170</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D125" s="51"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B126" s="50">
-        <f>B43*B124</f>
-        <v>0.39004</v>
-      </c>
-      <c r="C126" s="50" t="s">
+      <c r="A126" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="52">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="C126" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D126" s="51"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B127" s="50">
-        <f>B43*B125</f>
-        <v>0.39004</v>
-      </c>
-      <c r="C127" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" s="51"/>
+      <c r="A127" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" s="54">
+        <v>1.97</v>
+      </c>
+      <c r="C127" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B128" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" s="51"/>
+      <c r="A128" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="54">
+        <v>2.9</v>
+      </c>
+      <c r="C128" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="55"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="B129" s="52">
-        <v>0.13539999999999999</v>
-      </c>
-      <c r="C129" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129" s="51"/>
+      <c r="A129" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="54">
+        <v>0</v>
+      </c>
+      <c r="C129" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="55"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B130" s="54">
-        <v>1.97</v>
+        <f>B128/2</f>
+        <v>1.45</v>
       </c>
       <c r="C130" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" s="32" t="s">
-        <v>173</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D130" s="55"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B131" s="54">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="C131" s="54" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D131" s="55"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="54" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B132" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="54" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D132" s="55"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="54" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B133" s="54">
-        <f>B131/2</f>
-        <v>1.45</v>
+        <v>0.68</v>
       </c>
       <c r="C133" s="54" t="s">
         <v>33</v>
@@ -3529,97 +3537,99 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B134" s="54">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="C134" s="54" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D134" s="55"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" s="54">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="B135" s="54" t="s">
+        <v>303</v>
       </c>
       <c r="C135" s="54" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D135" s="55"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B136" s="54">
-        <v>0.68</v>
+        <f>B133/B73</f>
+        <v>1</v>
       </c>
       <c r="C136" s="54" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D136" s="55"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="54" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B137" s="54">
-        <v>0.68</v>
+        <f>B134/B74</f>
+        <v>1</v>
       </c>
       <c r="C137" s="54" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D137" s="55"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B138" s="54" t="s">
-        <v>303</v>
+        <v>184</v>
+      </c>
+      <c r="B138" s="54">
+        <f>B52*B136</f>
+        <v>1.4</v>
       </c>
       <c r="C138" s="54" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D138" s="55"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="54" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B139" s="54">
-        <f>B136/B43</f>
-        <v>0.48571428571428577</v>
+        <f>B52*B137</f>
+        <v>1.4</v>
       </c>
       <c r="C139" s="54" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D139" s="55"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B140" s="54">
-        <f>B137/B43</f>
-        <v>0.48571428571428577</v>
+        <f>0.75*B127</f>
+        <v>1.4775</v>
       </c>
       <c r="C140" s="54" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D140" s="55"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B141" s="54">
-        <f>B43*B139</f>
-        <v>0.68</v>
+        <v>3.78</v>
       </c>
       <c r="C141" s="54" t="s">
         <v>33</v>
@@ -3627,100 +3637,98 @@
       <c r="D141" s="55"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B142" s="54">
-        <f>B43*B140</f>
-        <v>0.68</v>
-      </c>
-      <c r="C142" s="54" t="s">
+      <c r="A142" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" s="56">
+        <f>B136</f>
+        <v>1</v>
+      </c>
+      <c r="C142" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D142" s="55"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="B143" s="54">
-        <f>0.75*B130</f>
-        <v>1.4775</v>
-      </c>
-      <c r="C143" s="54" t="s">
+      <c r="A143" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" s="58">
+        <v>0.35</v>
+      </c>
+      <c r="C143" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D143" s="55"/>
+      <c r="D143" s="32" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B144" s="54">
-        <v>3.78</v>
-      </c>
-      <c r="C144" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D144" s="55"/>
+      <c r="A144" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="58">
+        <v>1</v>
+      </c>
+      <c r="C144" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="59"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="B145" s="56">
-        <f>B139</f>
-        <v>0.48571428571428577</v>
-      </c>
-      <c r="C145" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D145" s="55"/>
+      <c r="A145" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" s="58">
+        <v>0</v>
+      </c>
+      <c r="C145" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="59"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B146" s="58">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c r="C146" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D146" s="32" t="s">
-        <v>190</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D146" s="59"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B147" s="58">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C147" s="58" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D147" s="59"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B148" s="58">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C148" s="58" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D148" s="59"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B149" s="58">
-        <v>0.9</v>
+        <v>0.63</v>
       </c>
       <c r="C149" s="58" t="s">
         <v>33</v>
@@ -3729,10 +3737,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="58" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B150" s="58">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="C150" s="58" t="s">
         <v>50</v>
@@ -3741,10 +3749,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B151" s="58">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C151" s="58" t="s">
         <v>50</v>
@@ -3753,7 +3761,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="58" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B152" s="58">
         <v>0.63</v>
@@ -3765,23 +3773,23 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="58" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B153" s="58">
-        <f>B145</f>
-        <v>0.48571428571428577</v>
+        <v>0.63</v>
       </c>
       <c r="C153" s="58" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D153" s="59"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="58" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B154" s="58">
-        <v>0.8</v>
+        <f>B149/B52</f>
+        <v>0.45</v>
       </c>
       <c r="C154" s="58" t="s">
         <v>50</v>
@@ -3790,21 +3798,23 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="58" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B155" s="58">
-        <v>0.63</v>
+        <f>B149/B52</f>
+        <v>0.45</v>
       </c>
       <c r="C155" s="58" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D155" s="59"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B156" s="58">
+        <f>B154*B52</f>
         <v>0.63</v>
       </c>
       <c r="C156" s="58" t="s">
@@ -3814,126 +3824,124 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="58" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B157" s="58">
-        <f>B152/B43</f>
-        <v>0.45</v>
+        <f>B155*B52</f>
+        <v>0.63</v>
       </c>
       <c r="C157" s="58" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D157" s="59"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B158" s="58">
-        <f>B152/B43</f>
-        <v>0.45</v>
+        <v>3.2</v>
       </c>
       <c r="C158" s="58" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D158" s="59"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="B159" s="58">
-        <f>B157*B43</f>
+      <c r="A159" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="60">
         <v>0.63</v>
       </c>
-      <c r="C159" s="58" t="s">
+      <c r="C159" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D159" s="59"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B160" s="58">
-        <f>B158*B43</f>
-        <v>0.63</v>
-      </c>
-      <c r="C160" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D160" s="59"/>
+      <c r="A160" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160" s="62">
+        <v>0.21072869999999999</v>
+      </c>
+      <c r="C160" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="B161" s="58">
-        <v>3.2</v>
-      </c>
-      <c r="C161" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="59"/>
+      <c r="A161" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B161" s="62">
+        <v>1.365</v>
+      </c>
+      <c r="C161" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="63"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="B162" s="60">
-        <v>0.63</v>
-      </c>
-      <c r="C162" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" s="59"/>
+      <c r="A162" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B162" s="62">
+        <f>(B27/2)*0.054054054</f>
+        <v>0.25999999973999999</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="63"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="62" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B163" s="62">
-        <v>0.21072869999999999</v>
+        <f>(B27/2)*0.5012</f>
+        <v>2.4107719999999997</v>
       </c>
       <c r="C163" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D163" s="32" t="s">
-        <v>208</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D163" s="63"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B164" s="62">
-        <v>1.365</v>
+        <f>(2*B162/B27)</f>
+        <v>5.4054054000000004E-2</v>
       </c>
       <c r="C164" s="62" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D164" s="63"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B165" s="62">
-        <f>(B18/2)*0.054054054</f>
-        <v>0.25999999973999999</v>
+        <v>0.50119999999999998</v>
       </c>
       <c r="C165" s="62" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D165" s="63"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="62" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B166" s="62">
-        <f>(B18/2)*0.5012</f>
-        <v>2.4107719999999997</v>
+        <v>0.39004</v>
       </c>
       <c r="C166" s="62" t="s">
         <v>33</v>
@@ -3942,23 +3950,22 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B167" s="62">
-        <f>(2*B165/B18)</f>
-        <v>5.4054054000000004E-2</v>
+        <v>0.39004</v>
       </c>
       <c r="C167" s="62" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D167" s="63"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="62" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B168" s="62">
-        <v>0.50119999999999998</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C168" s="62" t="s">
         <v>50</v>
@@ -3967,21 +3974,22 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="62" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B169" s="62">
-        <v>0.39004</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C169" s="62" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D169" s="63"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B170" s="62">
+        <f>B52*B168</f>
         <v>0.39004</v>
       </c>
       <c r="C170" s="62" t="s">
@@ -3991,35 +3999,35 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B171" s="62">
-        <v>0.27860000000000001</v>
+        <f>B52*B169</f>
+        <v>0.39004</v>
       </c>
       <c r="C171" s="62" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D171" s="63"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="B172" s="62">
-        <v>0.27860000000000001</v>
+        <v>220</v>
+      </c>
+      <c r="B172" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="C172" s="62" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D172" s="63"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B173" s="62">
-        <f>B43*B171</f>
-        <v>0.39004</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="C173" s="62" t="s">
         <v>33</v>
@@ -4027,842 +4035,842 @@
       <c r="D173" s="63"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="B174" s="62">
-        <f>B43*B172</f>
-        <v>0.39004</v>
-      </c>
-      <c r="C174" s="62" t="s">
-        <v>33</v>
+      <c r="A174" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C174" s="64" t="s">
+        <v>8</v>
       </c>
       <c r="D174" s="63"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="B175" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D175" s="63"/>
+      <c r="A175" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="B175" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="C175" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" s="32" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="B176" s="62">
-        <v>0.15440000000000001</v>
-      </c>
-      <c r="C176" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D176" s="63"/>
+      <c r="A176" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B176" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="C176" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D176" s="76"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="B177" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C177" s="64" t="s">
+      <c r="A177" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B177" s="36">
+        <v>1.55</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B178" s="36">
+        <v>1.9</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" s="37"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B179" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D179" s="37"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" s="36">
+        <v>-1</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180" s="37"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B181" s="36">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D181" s="37"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B182" s="36">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D182" s="37"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B183" s="36">
+        <v>0</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="37"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B184" s="36">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D184" s="37"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B185" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D185" s="37"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B186" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186" s="37"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B187" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D187" s="37"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B188" s="36">
+        <v>1.3878999999999999</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D188" s="37"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B189" s="36">
+        <v>-1.6541E-2</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D189" s="37"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B190" s="36">
+        <v>0</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190" s="37"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B191" s="36">
+        <v>-0.16969999999999999</v>
+      </c>
+      <c r="C191" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D191" s="37"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B192" s="36">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="C192" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D192" s="37"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B193" s="36">
+        <v>-0.41</v>
+      </c>
+      <c r="C193" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D193" s="37"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194" s="36">
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="C194" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D194" s="37"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="36">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="C195" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D195" s="37"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B196" s="36">
+        <v>-0.45</v>
+      </c>
+      <c r="C196" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D196" s="37"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B197" s="36">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="C197" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D197" s="37"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B198" s="36">
+        <v>30</v>
+      </c>
+      <c r="C198" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" s="37"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B199" s="36">
+        <v>25</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D199" s="37"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B200" s="36">
+        <v>25</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" s="37"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B201" s="36">
+        <v>25</v>
+      </c>
+      <c r="C201" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" s="37"/>
+    </row>
+    <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="37"/>
+    </row>
+    <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D203" s="37"/>
+    </row>
+    <row r="204" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B204" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="C204" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D204" s="37"/>
+    </row>
+    <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B205" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C205" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D205" s="36"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B206" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C206" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B207" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C207" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D207" s="78"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B208" s="79">
+        <v>3.6156899999999999E-5</v>
+      </c>
+      <c r="C208" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D208" s="78"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B209" s="77">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="C209" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D209" s="78"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B210" s="77">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="C210" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D210" s="78"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B211" s="77">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C211" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D211" s="78"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B212" s="80">
+        <v>0.3</v>
+      </c>
+      <c r="C212" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" s="78"/>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B213" s="67">
+        <v>47.222200000000001</v>
+      </c>
+      <c r="C213" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="D213" s="82" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="B214" s="68">
+        <v>3.8</v>
+      </c>
+      <c r="C214" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B215" s="68">
+        <v>-1.5</v>
+      </c>
+      <c r="C215" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" s="69"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="B216" s="68">
+        <v>15.24</v>
+      </c>
+      <c r="C216" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="D216" s="69"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="B217" s="70">
+        <v>7.62</v>
+      </c>
+      <c r="C217" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="D217" s="83"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C218" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="63"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="B178" s="65">
-        <v>6.3</v>
-      </c>
-      <c r="C178" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D178" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="B179" s="65">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C179" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="66"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="B180" s="65">
+      <c r="D218" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B219" s="26">
+        <v>4</v>
+      </c>
+      <c r="C219" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D219" s="27"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220" s="28">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D220" s="27"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B221" s="26">
+        <v>5800</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D221" s="27"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B222" s="28">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D222" s="27"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B223" s="28">
+        <f>B220*0.9</f>
+        <v>67.113</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D223" s="27"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B224" s="26">
+        <v>5500</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D224" s="29"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B225" s="26">
+        <v>1.33</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D225" s="29"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B226" s="28">
+        <v>15</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="29"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B227" s="28">
+        <v>75</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="29"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B228" s="26">
+        <v>1</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D228" s="29"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B229" s="26">
         <v>2.5</v>
       </c>
-      <c r="C180" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D180" s="66"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="B181" s="65">
-        <v>0.45</v>
-      </c>
-      <c r="C181" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D181" s="66"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="B182" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D182" s="66"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="B183" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C183" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="66"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="B184" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="C184" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="66"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="B185" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="C185" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="66"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B186" s="68">
-        <v>1.97</v>
-      </c>
-      <c r="C186" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D186" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="B187" s="68">
-        <v>2.9</v>
-      </c>
-      <c r="C187" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D187" s="69"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="B188" s="68">
-        <v>0.68</v>
-      </c>
-      <c r="C188" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188" s="69"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="B189" s="68">
-        <v>0.68</v>
-      </c>
-      <c r="C189" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D189" s="69"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="B190" s="68">
-        <v>3.78</v>
-      </c>
-      <c r="C190" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190" s="69"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="B191" s="68">
+      <c r="C229" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D229" s="29"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B230" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D230" s="29"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B231" s="26">
         <v>0</v>
       </c>
-      <c r="C191" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D191" s="69"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="B192" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C192" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D192" s="69"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="B193" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="C193" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D193" s="69"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B194" s="68">
-        <v>0</v>
-      </c>
-      <c r="C194" s="68" t="s">
+      <c r="C231" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="29"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B232" s="26">
         <v>35</v>
       </c>
-      <c r="D194" s="69"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="B195" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="C195" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D195" s="69"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="B196" s="68" t="s">
-        <v>303</v>
-      </c>
-      <c r="C196" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="69"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="B197" s="68">
-        <v>3.1280000000000001</v>
-      </c>
-      <c r="C197" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D197" s="69"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B198" s="68">
-        <v>0</v>
-      </c>
-      <c r="C198" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="69"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B199" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="C199" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D199" s="69"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="B200" s="68">
-        <v>1.49</v>
-      </c>
-      <c r="C200" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D200" s="69"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="B201" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="C201" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D201" s="69"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="B202" s="68">
-        <v>0</v>
-      </c>
-      <c r="C202" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D202" s="69"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="B203" s="68">
-        <v>0</v>
-      </c>
-      <c r="C203" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D203" s="69"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="B204" s="68">
+      <c r="C232" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D232" s="29"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B233" s="26">
+        <v>70</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D233" s="29"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B234" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D234" s="29"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235" s="30">
+        <v>60</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="29"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B236" s="31">
+        <v>1.66</v>
+      </c>
+      <c r="C236" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D236" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B237" s="31">
+        <v>2</v>
+      </c>
+      <c r="C237" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D237" s="33"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B238" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="C238" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="33"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="34">
+        <v>98.1</v>
+      </c>
+      <c r="C239" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D239" s="33"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B240" s="31">
         <v>1</v>
       </c>
-      <c r="C204" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D204" s="69"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B205" s="70">
-        <v>0</v>
-      </c>
-      <c r="C205" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D205" s="69"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="B206" s="54">
-        <v>0.72</v>
-      </c>
-      <c r="C206" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D206" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="B207" s="54">
-        <v>1.23</v>
-      </c>
-      <c r="C207" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D207" s="55"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="B208" s="54">
-        <v>1</v>
-      </c>
-      <c r="C208" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D208" s="55"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="B209" s="54">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="C209" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D209" s="55"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B210" s="54">
-        <v>0.68</v>
-      </c>
-      <c r="C210" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D210" s="55"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="B211" s="54">
-        <v>3.2</v>
-      </c>
-      <c r="C211" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D211" s="55"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="B212" s="54">
-        <v>15</v>
-      </c>
-      <c r="C212" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D212" s="55"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="B213" s="54">
-        <v>0</v>
-      </c>
-      <c r="C213" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D213" s="55"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="B214" s="54">
-        <v>0</v>
-      </c>
-      <c r="C214" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D214" s="55"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="B215" s="54">
-        <v>0.2335363</v>
-      </c>
-      <c r="C215" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D215" s="55"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="B216" s="54">
-        <v>2</v>
-      </c>
-      <c r="C216" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="55"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B217" s="54">
-        <v>0</v>
-      </c>
-      <c r="C217" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D217" s="55"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="B218" s="54">
-        <v>0</v>
-      </c>
-      <c r="C218" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D218" s="55"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B219" s="54">
-        <v>0</v>
-      </c>
-      <c r="C219" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D219" s="55"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="B220" s="54">
-        <v>0.95</v>
-      </c>
-      <c r="C220" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D220" s="55"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B221" s="54">
-        <v>0</v>
-      </c>
-      <c r="C221" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D221" s="55"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="B222" s="54">
-        <v>1</v>
-      </c>
-      <c r="C222" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D222" s="55"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="B223" s="54">
-        <v>1</v>
-      </c>
-      <c r="C223" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="D223" s="55"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="B224" s="54">
-        <v>15</v>
-      </c>
-      <c r="C224" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D224" s="55"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B225" s="54">
-        <v>20</v>
-      </c>
-      <c r="C225" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D225" s="55"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B226" s="54">
-        <v>0</v>
-      </c>
-      <c r="C226" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D226" s="55"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="B227" s="56">
-        <v>0</v>
-      </c>
-      <c r="C227" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D227" s="55"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="B228" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="C228" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D228" s="32" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="B229" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="C229" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="D229" s="76"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="77" t="s">
-        <v>283</v>
-      </c>
-      <c r="B230" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="C230" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D230" s="32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="B231" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="C231" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D231" s="78"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="B232" s="79">
-        <v>3.6156899999999999E-5</v>
-      </c>
-      <c r="C232" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D232" s="78"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="B233" s="77">
-        <v>6.4400000000000004E-4</v>
-      </c>
-      <c r="C233" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D233" s="78"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B234" s="77">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="C234" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D234" s="78"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="B235" s="77">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="C235" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D235" s="78"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="B236" s="80">
-        <v>0.3</v>
-      </c>
-      <c r="C236" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D236" s="78"/>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="B237" s="67">
-        <v>47.222200000000001</v>
-      </c>
-      <c r="C237" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="D237" s="82" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="B238" s="68">
-        <v>3.8</v>
-      </c>
-      <c r="C238" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D238" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="B239" s="68">
-        <v>-1.5</v>
-      </c>
-      <c r="C239" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D239" s="69"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="B240" s="68">
-        <v>15.24</v>
-      </c>
-      <c r="C240" s="68" t="s">
-        <v>294</v>
-      </c>
-      <c r="D240" s="69"/>
+      <c r="C240" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D240" s="33"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="B241" s="70">
-        <v>7.62</v>
-      </c>
-      <c r="C241" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="D241" s="83"/>
+      <c r="A241" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B241" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="C241" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="33"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B177" xr:uid="{AE14DB31-8DB7-405B-8A10-313823DA5991}">
+  <dataValidations disablePrompts="1" count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B174" xr:uid="{AE14DB31-8DB7-405B-8A10-313823DA5991}">
       <formula1>"Split, Plain, Slotted, Double slotted, Fowler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B196 B138" xr:uid="{C300441F-F116-446A-B7C2-67C4419AF892}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81 B135" xr:uid="{C300441F-F116-446A-B7C2-67C4419AF892}">
       <formula1>"Conventional, Full movable, Custom"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{64C4C391-B12C-490E-9882-E08D10CACFCF}">
@@ -4877,19 +4885,217 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{B1CA99B6-531C-4BD9-A2C9-62F759AF419E}">
       <formula1>"Single fin, Double fin, Multiple fin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{68F96663-39EB-4B32-B0DE-D324564E9486}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{68F96663-39EB-4B32-B0DE-D324564E9486}">
       <formula1>"Rectangular, With_kinks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53" xr:uid="{EF869A3F-90F0-4788-B486-772D73ADA5CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B218" xr:uid="{EF869A3F-90F0-4788-B486-772D73ADA5CF}">
       <formula1>"FOUR STROKE, TWO STROKE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54" xr:uid="{5A5BC725-9D94-4EAC-BD35-E1AA5B1169E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B219" xr:uid="{5A5BC725-9D94-4EAC-BD35-E1AA5B1169E3}">
       <formula1>"1, 2, 3, 4, 5, 6, 8, 10, 12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72" xr:uid="{6115C2B3-6C02-486A-8FE7-46E61D2F47C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B237" xr:uid="{6115C2B3-6C02-486A-8FE7-46E61D2F47C6}">
       <formula1>"2, 3, 4, 6"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
+    <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}"/>
 </file>
--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EA95E9-DB0C-4C65-9591-33A960E7D2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38B6F5-FEED-4698-8225-CF384138E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Regulation</t>
-  </si>
-  <si>
-    <t>CSVLA</t>
   </si>
   <si>
     <t>Date</t>
@@ -1190,6 +1187,9 @@
   </si>
   <si>
     <t>Wing semispan percentage</t>
+  </si>
+  <si>
+    <t>csvla</t>
   </si>
 </sst>
 </file>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
   <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -1907,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9">
         <v>43427</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>8</v>
@@ -1964,669 +1964,669 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13">
         <v>450</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="14">
         <v>281</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14">
         <v>169</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="14">
         <v>50.5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="14">
         <v>180</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="17">
         <v>1.85</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="41">
         <v>0</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="41">
         <v>2000</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="43">
         <v>4000</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="45">
         <v>0.23</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="45">
         <v>0.26</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="47">
         <v>0.25</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="91"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="19">
         <v>13.4</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="19">
         <v>9.6199999999999992</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="19">
         <v>1.5</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="19">
         <f>B10/B23</f>
         <v>33.582089552238806</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="19">
         <v>0.25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.125</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="19">
-        <v>0.4375</v>
+        <v>0.33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="19">
-        <v>0.4375</v>
+        <v>0.33</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="22">
         <v>0</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="22">
         <v>0</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="22">
         <v>0</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="22">
         <v>1.5</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="22">
         <v>1.5</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="22">
         <v>1.5</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="22">
         <v>-1.5</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="22">
         <v>-1.5</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="22">
         <v>-1.5</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="22">
         <v>-1.5</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="22">
         <v>0.25</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="22">
         <v>1.4</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="22">
         <v>1.4</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="22">
         <v>1.4</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="22">
         <v>1.4</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="22">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="22">
         <v>0.4</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="22">
         <v>0.12</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="22">
         <v>0</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="22">
         <v>0</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="22">
         <v>1.6379999999999999</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="22">
         <v>0</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="23">
         <v>0.16500000000000001</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B58" s="63">
         <v>6.3</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" s="63">
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="64"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B60" s="63">
         <v>2.5</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="64"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B61" s="63">
         <v>1.4</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="64"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" s="84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="64"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="63" t="s">
         <v>199</v>
-      </c>
-      <c r="B64" s="63" t="s">
-        <v>200</v>
       </c>
       <c r="C64" s="63" t="s">
         <v>8</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="65" t="s">
         <v>201</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>202</v>
       </c>
       <c r="C65" s="65" t="s">
         <v>8</v>
@@ -2647,132 +2647,132 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="66">
         <v>1.97</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" s="66">
         <v>2.9</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="66">
         <v>0.68</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="67"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69" s="66">
         <v>0.68</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="67"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="66">
         <v>3.78</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="67"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B71" s="66">
         <v>0</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B72" s="66">
         <v>0.2</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D72" s="67"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73" s="66">
         <v>0.12</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" s="67"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" s="66">
         <v>0</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="67"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B75" s="66">
         <v>0.25</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" s="66" t="s">
         <v>8</v>
@@ -2781,237 +2781,237 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B77" s="66">
         <v>6</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="67"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B78" s="66">
         <v>0</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="67"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="66">
         <v>0.15</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79" s="67"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B80" s="66">
         <v>1.49</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" s="67"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B81" s="66">
         <v>0.3</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D81" s="67"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B82" s="66">
         <v>0</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="67"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B83" s="66">
         <v>0</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D83" s="67"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B84" s="66">
         <v>1</v>
       </c>
       <c r="C84" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D84" s="67"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B85" s="68">
         <v>0</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="67"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B86" s="52">
         <v>0.72</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B87" s="52">
         <v>1.23</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="53"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B88" s="52">
         <v>1</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" s="53"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B89" s="52">
         <v>0.47599999999999998</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="53"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B90" s="52">
         <v>0.68</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" s="53"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B91" s="52">
         <v>3.2</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="53"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B92" s="52">
         <v>15</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="53"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B93" s="52">
         <v>0</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" s="53"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B94" s="52">
         <v>0</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="53"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B95" s="52">
         <v>0.2335363</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="53"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B96" s="52">
         <v>2</v>
@@ -3023,330 +3023,330 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B97" s="52">
         <v>0</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="53"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B98" s="52">
         <v>0</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="53"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" s="52">
         <v>0</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" s="53"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B100" s="52">
         <v>0.95</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D100" s="53"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B101" s="52">
         <v>0</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D101" s="53"/>
     </row>
     <row r="102" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B102" s="52">
         <v>1</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D102" s="53"/>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B103" s="52">
         <v>1</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" s="53"/>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B104" s="52">
         <v>15</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="53"/>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B105" s="52">
         <v>20</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="53"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B106" s="52">
         <v>0</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D106" s="53"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B107" s="54">
         <v>0</v>
       </c>
       <c r="C107" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D107" s="53"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" s="48">
         <v>0.71399999999999997</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109" s="48">
         <v>1.97</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" s="49"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" s="48">
         <v>0.50309999999999999</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D110" s="49"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B111" s="48">
         <v>0.91269999999999996</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D111" s="49"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="48">
         <f>B116</f>
         <v>0.39004</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D112" s="49"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113" s="48">
         <f>B116</f>
         <v>0.39004</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" s="49"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B114" s="48">
         <v>0.27860000000000001</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D114" s="49"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115" s="48">
         <v>0.27860000000000001</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116" s="48">
         <f>B48*B114</f>
         <v>0.39004</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" s="49"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B117" s="48">
         <f>B48*B115</f>
         <v>0.39004</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="49"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="49"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B119" s="52">
         <v>1.97</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B120" s="52">
         <v>2.9</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D120" s="53"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B121" s="52">
         <v>0</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D121" s="53"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B122" s="52">
         <v>1</v>
       </c>
       <c r="C122" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>8</v>
@@ -3355,272 +3355,272 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124" s="52">
         <f>0.68/B68</f>
         <v>1</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D124" s="53"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B125" s="52">
         <f>0.68/B69</f>
         <v>1</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D125" s="53"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B126" s="52">
         <f>0.75*B119</f>
         <v>1.4775</v>
       </c>
       <c r="C126" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" s="53"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B127" s="54">
         <v>3.78</v>
       </c>
       <c r="C127" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D127" s="53"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B128" s="56">
         <v>0.35</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" s="56">
         <v>1</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="57"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B130" s="56">
         <v>0.1</v>
       </c>
       <c r="C130" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D130" s="57"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B131" s="56">
         <v>0.9</v>
       </c>
       <c r="C131" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D131" s="57"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B132" s="56">
         <v>0.63</v>
       </c>
       <c r="C132" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="57"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B133" s="56">
         <v>0.48</v>
       </c>
       <c r="C133" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D133" s="57"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B134" s="56">
         <v>0.8</v>
       </c>
       <c r="C134" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D134" s="57"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B135" s="56">
         <f>B132/B48</f>
         <v>0.45</v>
       </c>
       <c r="C135" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D135" s="57"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B136" s="56">
         <f>B132/B48</f>
         <v>0.45</v>
       </c>
       <c r="C136" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D136" s="57"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B137" s="58">
         <v>3.2</v>
       </c>
       <c r="C137" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="57"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B138" s="60">
         <v>0.21072869999999999</v>
       </c>
       <c r="C138" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B139" s="60">
         <v>1.365</v>
       </c>
       <c r="C139" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" s="61"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140" s="60">
         <f>(2*0.26/B24)</f>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="C140" s="92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D140" s="61"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B141" s="60">
         <v>0.50119999999999998</v>
       </c>
       <c r="C141" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D141" s="61"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B142" s="60">
         <v>0.27860000000000001</v>
       </c>
       <c r="C142" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D142" s="61"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B143" s="60">
         <v>0.27860000000000001</v>
       </c>
       <c r="C143" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D143" s="61"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B144" s="60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C144" s="60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D144" s="61"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="62" t="s">
         <v>190</v>
-      </c>
-      <c r="B145" s="62" t="s">
-        <v>191</v>
       </c>
       <c r="C145" s="62" t="s">
         <v>8</v>
@@ -3629,815 +3629,815 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" s="71">
         <v>0.12</v>
       </c>
       <c r="C146" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B147" s="72">
         <v>0.12</v>
       </c>
       <c r="C147" s="73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D147" s="74"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B148" s="36">
         <v>1.55</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B149" s="36">
         <v>1.9</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B150" s="36">
         <v>2.2000000000000002</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D150" s="37"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B151" s="36">
         <v>-1</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D151" s="37"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B152" s="36">
         <v>4.3600000000000003</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B153" s="36">
         <v>0</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B154" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" s="36">
         <v>0.01</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D155" s="37"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B156" s="36">
         <v>0.8</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B157" s="36">
         <v>0.6</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B158" s="36">
         <v>1.3878999999999999</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B159" s="36">
         <v>-1.6541E-2</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B160" s="36">
         <v>0</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B161" s="36">
         <v>-0.16969999999999999</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B162" s="36">
         <v>-6.0999999999999999E-2</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B163" s="36">
         <v>-0.41</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B164" s="36">
         <v>-0.46100000000000002</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B165" s="36">
         <v>-0.26900000000000002</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D165" s="37"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B166" s="36">
         <v>-0.45</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D166" s="37"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B167" s="36">
         <v>-2.3999999999999998E-3</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B168" s="36">
         <v>30</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="36">
         <v>25</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="37"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B170" s="36">
         <v>25</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="37"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B171" s="36">
         <v>25</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="37"/>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="37"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D173" s="37"/>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B174" s="82" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D174" s="37"/>
     </row>
     <row r="175" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B175" s="83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D175" s="36"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B176" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B176" s="75" t="s">
+      <c r="C176" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" s="32" t="s">
         <v>252</v>
-      </c>
-      <c r="C176" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D176" s="32" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B177" s="75" t="s">
-        <v>255</v>
-      </c>
       <c r="C177" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D177" s="76"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B178" s="77">
         <v>3.6156899999999999E-5</v>
       </c>
       <c r="C178" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D178" s="76"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B179" s="75">
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="C179" s="75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D179" s="76"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B180" s="75">
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="C180" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D180" s="76"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B181" s="75">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C181" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D181" s="76"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B182" s="78">
         <v>0.3</v>
       </c>
       <c r="C182" s="79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D182" s="76"/>
     </row>
     <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B183" s="65">
         <v>47.222200000000001</v>
       </c>
       <c r="C183" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D183" s="80" t="s">
         <v>262</v>
-      </c>
-      <c r="D183" s="80" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B184" s="66">
         <v>3.8</v>
       </c>
       <c r="C184" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D184" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B185" s="66">
         <v>-1.5</v>
       </c>
       <c r="C185" s="66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D185" s="67"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B186" s="66">
         <v>15.24</v>
       </c>
       <c r="C186" s="66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D186" s="67"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B187" s="68">
         <v>7.62</v>
       </c>
       <c r="C187" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D187" s="81"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B188" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="C188" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B189" s="26">
         <v>4</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D189" s="27"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B190" s="28">
         <v>74.569999999999993</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D190" s="27"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B191" s="26">
         <v>5800</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D191" s="27"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B192" s="28">
         <v>2.4285999999999999</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D192" s="27"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B193" s="28">
         <f>B190*0.9</f>
         <v>67.113</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D193" s="27"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B194" s="26">
         <v>5500</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D194" s="29"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B195" s="26">
         <v>1.33</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D195" s="29"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B196" s="28">
         <v>15</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D196" s="29"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B197" s="28">
         <v>75</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D197" s="29"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B198" s="26">
         <v>1</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B199" s="26">
         <v>2.5</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D199" s="29"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B200" s="26">
         <v>2.5</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D200" s="29"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B201" s="26">
         <v>0</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D201" s="29"/>
     </row>
     <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B202" s="26">
         <v>35</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D202" s="29"/>
     </row>
     <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B203" s="26">
         <v>70</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D203" s="29"/>
     </row>
     <row r="204" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B204" s="26">
         <v>2.5</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D204" s="29"/>
     </row>
     <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B205" s="85">
         <v>60</v>
       </c>
       <c r="C205" s="85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D205" s="29"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B206" s="85">
         <v>0</v>
       </c>
       <c r="C206" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D206" s="29"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B207" s="85">
         <v>0</v>
       </c>
       <c r="C207" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D207" s="29"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B208" s="85">
         <v>0</v>
       </c>
       <c r="C208" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D208" s="29"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B209" s="85">
         <v>1.2</v>
       </c>
       <c r="C209" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D209" s="29"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B210" s="85">
         <v>0.8</v>
       </c>
       <c r="C210" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D210" s="29"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B211" s="85">
         <v>1.6</v>
       </c>
       <c r="C211" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D211" s="29"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B212" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="B212" s="30" t="s">
-        <v>284</v>
       </c>
       <c r="C212" s="30" t="s">
         <v>8</v>
@@ -4446,101 +4446,101 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B213" s="31">
         <v>1.66</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D213" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B214" s="31">
         <v>2</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D214" s="33"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B215" s="31">
         <v>3.3</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D215" s="33"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B216" s="34">
         <v>98.1</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D216" s="33"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B217" s="31">
         <v>1</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D217" s="33"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B218" s="35">
         <v>0.66</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D218" s="33"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B219" s="87">
         <v>0.3</v>
       </c>
       <c r="C219" s="87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D219" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B220" s="89">
         <v>0.3</v>
       </c>
       <c r="C220" s="90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D220" s="88"/>
     </row>
@@ -4559,7 +4559,7 @@
       <formula1>"Very Light airplane, CS-23 airplane, CS-25 airplane"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{4759DC4D-4942-4CCB-9FB4-C98B79FBE93F}">
-      <formula1>"CSVLA, CS-23, CS-25"</formula1>
+      <formula1>"csvla, cs-23, cs-25"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{B1CA99B6-531C-4BD9-A2C9-62F759AF419E}">
       <formula1>"Single fin, Double fin, Multiple fin"</formula1>
@@ -4586,6 +4586,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
     <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
@@ -4755,22 +4770,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4786,21 +4803,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38B6F5-FEED-4698-8225-CF384138E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2A3AA-ABFE-4864-A1BD-53B00A260520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="283">
   <si>
     <t>field</t>
   </si>
@@ -406,15 +406,9 @@
     <t>clstar_coefficient</t>
   </si>
   <si>
-    <t>CM0</t>
-  </si>
-  <si>
     <t>Cmlanding_gear</t>
   </si>
   <si>
-    <t>CMCL_slope</t>
-  </si>
-  <si>
     <t>aileron_chdelta</t>
   </si>
   <si>
@@ -496,22 +490,10 @@
     <t>ailerons_eta_outer</t>
   </si>
   <si>
-    <t>ailerons_ca</t>
-  </si>
-  <si>
-    <t>ailerons_cb</t>
-  </si>
-  <si>
     <t>ca_c_root_ailerons</t>
   </si>
   <si>
     <t>ca_c_tip_ailerons</t>
-  </si>
-  <si>
-    <t>ca_root_ailerons</t>
-  </si>
-  <si>
-    <t>ca_tip_ailerons</t>
   </si>
   <si>
     <t>ailerons_moment_arm</t>
@@ -925,81 +907,6 @@
  18.250; ]</t>
   </si>
   <si>
-    <t>[-0.0818;
--0.0804;
--0.0788;
--0.0765;
--0.0958;
--0.0989;
--0.1021;
--0.1059;
--0.1068;
--0.1055;
--0.1042;
--0.1031;
--0.1018;
--0.1006;
--0.0995;
--0.0982;
--0.0970;
--0.0959;
--0.0944;
--0.0933;
--0.0919;
--0.0905;
--0.0888;
--0.0873;
--0.0856;
--0.0837;
--0.0819;
--0.0798;
--0.0768;
--0.0744;
--0.0718;
--0.0695;
--0.0673;
--0.0653;
--0.0633;
--0.0615;
--0.0594;
--0.0579;
--0.0561;
--0.0544;
--0.0529;
--0.0509;
--0.0494;
--0.0475;
--0.0457;
--0.0434;
--0.0395;
--0.0359;
--0.0339;
--0.0322;
--0.0307;
--0.0292;
--0.0281;
--0.0269;
--0.0258;
--0.0246;
--0.0237;
--0.0229;
--0.0222;
--0.0216;
--0.0210;
--0.0204;
--0.0200;
--0.0198;
--0.0196;
--0.0196;
--0.0196;
--0.0198;
--0.0201;
--0.0206;
--0.0213;
--0.0223;
--0.0231;]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.8000;
 0.8111;
 0.8313;
@@ -1190,6 +1097,81 @@
   </si>
   <si>
     <t>csvla</t>
+  </si>
+  <si>
+    <t>[-0.0623;
+-0.0617;
+-0.0611;
+-0.0605;
+-0.0599;
+-0.0593;
+-0.0587;
+-0.0581;
+-0.0575;
+-0.0569;
+-0.0563;
+-0.0578;
+-0.0573;
+-0.0568;
+-0.0563;
+-0.0558;
+-0.0553;
+-0.0548;
+-0.0543;
+-0.0539;
+-0.0535;
+-0.0531;
+-0.0527;
+-0.0523;
+-0.0519;
+-0.0515;
+-0.0511;
+-0.0507;
+-0.0503;
+-0.0499;
+-0.0495;
+-0.0491;
+-0.0487;
+-0.0483;
+-0.0479;
+-0.0475;
+-0.0471;
+-0.0467;
+-0.0463;
+-0.0459;
+-0.0455;
+-0.0449;
+-0.0444;
+-0.0440;
+-0.0437;
+-0.0434;
+-0.0395;
+-0.0359;
+-0.0339;
+-0.0322;
+-0.0307;
+-0.0292;
+-0.0281;
+-0.0269;
+-0.0258;
+-0.0246;
+-0.0237;
+-0.0229;
+-0.0222;
+-0.0216;
+-0.0210;
+-0.0204;
+-0.0200;
+-0.0198;
+-0.0196;
+-0.0196;
+-0.0196;
+-0.0196;
+-0.0194;
+-0.0194;
+-0.0192;
+-0.0192;
+-0.0190;]</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1524,6 +1506,9 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1838,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -1907,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1955,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>8</v>
@@ -2038,7 +2023,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" s="41">
         <v>0</v>
@@ -2047,12 +2032,12 @@
         <v>32</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" s="41">
         <v>2000</v>
@@ -2064,7 +2049,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="43">
         <v>4000</v>
@@ -2076,7 +2061,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="45">
         <v>0.23</v>
@@ -2085,12 +2070,12 @@
         <v>38</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="45">
         <v>0.26</v>
@@ -2102,7 +2087,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="47">
         <v>0.25</v>
@@ -2228,7 +2213,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>21</v>
@@ -2240,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>21</v>
@@ -2252,7 +2237,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>21</v>
@@ -2264,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>21</v>
@@ -2549,7 +2534,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B58" s="63">
         <v>6.3</v>
@@ -2558,12 +2543,12 @@
         <v>32</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B59" s="63">
         <v>1.1000000000000001</v>
@@ -2575,7 +2560,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B60" s="63">
         <v>2.5</v>
@@ -2587,7 +2572,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B61" s="63">
         <v>1.4</v>
@@ -2599,7 +2584,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B62" s="84" t="s">
         <v>21</v>
@@ -2611,7 +2596,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B63" s="63" t="s">
         <v>21</v>
@@ -2623,10 +2608,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C64" s="63" t="s">
         <v>8</v>
@@ -2635,10 +2620,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C65" s="65" t="s">
         <v>8</v>
@@ -2647,7 +2632,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="66" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B66" s="66">
         <v>1.97</v>
@@ -2656,12 +2641,12 @@
         <v>30</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B67" s="66">
         <v>2.9</v>
@@ -2673,7 +2658,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B68" s="66">
         <v>0.68</v>
@@ -2685,7 +2670,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B69" s="66">
         <v>0.68</v>
@@ -2697,7 +2682,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B70" s="66">
         <v>3.78</v>
@@ -2709,7 +2694,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B71" s="66">
         <v>0</v>
@@ -2721,7 +2706,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B72" s="66">
         <v>0.2</v>
@@ -2733,7 +2718,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B73" s="66">
         <v>0.12</v>
@@ -2745,7 +2730,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B74" s="66">
         <v>0</v>
@@ -2757,7 +2742,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B75" s="66">
         <v>0.25</v>
@@ -2769,10 +2754,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C76" s="66" t="s">
         <v>8</v>
@@ -2781,7 +2766,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B77" s="66">
         <v>6</v>
@@ -2793,7 +2778,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="66" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B78" s="66">
         <v>0</v>
@@ -2805,7 +2790,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B79" s="66">
         <v>0.15</v>
@@ -2817,7 +2802,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B80" s="66">
         <v>1.49</v>
@@ -2829,7 +2814,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="66" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B81" s="66">
         <v>0.3</v>
@@ -2841,7 +2826,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="66" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B82" s="66">
         <v>0</v>
@@ -2853,7 +2838,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="66" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B83" s="66">
         <v>0</v>
@@ -2865,7 +2850,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B84" s="66">
         <v>1</v>
@@ -2877,7 +2862,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B85" s="68">
         <v>0</v>
@@ -2889,7 +2874,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B86" s="52">
         <v>0.72</v>
@@ -2898,12 +2883,12 @@
         <v>30</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B87" s="52">
         <v>1.23</v>
@@ -2915,7 +2900,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B88" s="52">
         <v>1</v>
@@ -2927,7 +2912,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B89" s="52">
         <v>0.47599999999999998</v>
@@ -2939,7 +2924,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B90" s="52">
         <v>0.68</v>
@@ -2951,7 +2936,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B91" s="52">
         <v>3.2</v>
@@ -2963,7 +2948,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B92" s="52">
         <v>15</v>
@@ -2975,7 +2960,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B93" s="52">
         <v>0</v>
@@ -2987,7 +2972,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B94" s="52">
         <v>0</v>
@@ -2999,7 +2984,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B95" s="52">
         <v>0.2335363</v>
@@ -3011,7 +2996,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B96" s="52">
         <v>2</v>
@@ -3023,7 +3008,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B97" s="52">
         <v>0</v>
@@ -3035,7 +3020,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B98" s="52">
         <v>0</v>
@@ -3047,7 +3032,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B99" s="52">
         <v>0</v>
@@ -3059,43 +3044,43 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B100" s="52">
         <v>0.95</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D100" s="53"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B101" s="52">
         <v>0</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D101" s="53"/>
     </row>
     <row r="102" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B102" s="52">
         <v>1</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D102" s="53"/>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B103" s="52">
         <v>1</v>
@@ -3107,7 +3092,7 @@
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B104" s="52">
         <v>15</v>
@@ -3119,7 +3104,7 @@
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B105" s="52">
         <v>20</v>
@@ -3131,7 +3116,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="52" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B106" s="52">
         <v>0</v>
@@ -3143,7 +3128,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="54" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B107" s="54">
         <v>0</v>
@@ -3154,8 +3139,8 @@
       <c r="D107" s="53"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
-        <v>148</v>
+      <c r="A108" s="93" t="s">
+        <v>146</v>
       </c>
       <c r="B108" s="48">
         <v>0.71399999999999997</v>
@@ -3164,12 +3149,12 @@
         <v>30</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="48" t="s">
-        <v>150</v>
+      <c r="A109" s="93" t="s">
+        <v>148</v>
       </c>
       <c r="B109" s="48">
         <v>1.97</v>
@@ -3181,7 +3166,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B110" s="48">
         <v>0.50309999999999999</v>
@@ -3193,7 +3178,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B111" s="48">
         <v>0.91269999999999996</v>
@@ -3205,124 +3190,122 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B112" s="48">
-        <f>B116</f>
-        <v>0.39004</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D112" s="49"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="48">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="C113" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="49"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="49"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="48">
-        <f>B116</f>
-        <v>0.39004</v>
-      </c>
-      <c r="C113" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="49"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="48" t="s">
+      <c r="B115" s="52">
+        <v>1.97</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="48">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="C114" s="48" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="52">
+        <v>2.9</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="53"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="52">
+        <v>0</v>
+      </c>
+      <c r="C117" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="49"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B115" s="48">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="C115" s="48" t="s">
+      <c r="D117" s="53"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="52">
+        <v>1</v>
+      </c>
+      <c r="C118" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D115" s="49"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B116" s="48">
-        <f>B48*B114</f>
-        <v>0.39004</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" s="49"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B117" s="48">
-        <f>B48*B115</f>
-        <v>0.39004</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D117" s="49"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B118" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="49"/>
+      <c r="D118" s="53"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B119" s="52">
-        <v>1.97</v>
+        <v>159</v>
+      </c>
+      <c r="B119" s="52" t="s">
+        <v>264</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>161</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D119" s="53"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B120" s="52">
-        <v>2.9</v>
+        <f>0.68/B68</f>
+        <v>1</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D120" s="53"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B121" s="52">
-        <v>0</v>
+        <f>0.68/B69</f>
+        <v>1</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>47</v>
@@ -3330,112 +3313,110 @@
       <c r="D121" s="53"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="52" t="s">
+      <c r="A122" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="52">
+        <f>0.75*B115</f>
+        <v>1.4775</v>
+      </c>
+      <c r="C122" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="53"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" s="54">
+        <v>3.78</v>
+      </c>
+      <c r="C123" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="53"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B122" s="52">
+      <c r="B124" s="56">
+        <v>0.35</v>
+      </c>
+      <c r="C124" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="56">
         <v>1</v>
       </c>
-      <c r="C122" s="52" t="s">
+      <c r="C125" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="57"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="C126" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D122" s="53"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B123" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="53"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="B124" s="52">
-        <f>0.68/B68</f>
-        <v>1</v>
-      </c>
-      <c r="C124" s="52" t="s">
+      <c r="D126" s="57"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="C127" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="53"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="B125" s="52">
-        <f>0.68/B69</f>
-        <v>1</v>
-      </c>
-      <c r="C125" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D125" s="53"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="B126" s="52">
-        <f>0.75*B119</f>
-        <v>1.4775</v>
-      </c>
-      <c r="C126" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="53"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B127" s="54">
-        <v>3.78</v>
-      </c>
-      <c r="C127" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" s="53"/>
+      <c r="D127" s="57"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B128" s="56">
-        <v>0.35</v>
+        <v>0.63</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="32" t="s">
-        <v>171</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D128" s="57"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B129" s="56">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D129" s="57"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B130" s="56">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C130" s="56" t="s">
         <v>47</v>
@@ -3444,10 +3425,11 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B131" s="56">
-        <v>0.9</v>
+        <f>B128/B48</f>
+        <v>0.45</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>47</v>
@@ -3456,235 +3438,234 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="56">
+        <f>B128/B48</f>
+        <v>0.45</v>
+      </c>
+      <c r="C132" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="57"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="58">
+        <v>3.2</v>
+      </c>
+      <c r="C133" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="57"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="B132" s="56">
-        <v>0.63</v>
-      </c>
-      <c r="C132" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" s="57"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="56" t="s">
+      <c r="B134" s="60">
+        <v>0.21072869999999999</v>
+      </c>
+      <c r="C134" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B133" s="56">
-        <v>0.48</v>
-      </c>
-      <c r="C133" s="56" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="60">
+        <v>1.365</v>
+      </c>
+      <c r="C135" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="61"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="60">
+        <f>(2*0.26/B24)</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="C136" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D133" s="57"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B134" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="C134" s="56" t="s">
+      <c r="D136" s="61"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B137" s="60">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="C137" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D134" s="57"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" s="56">
-        <f>B132/B48</f>
-        <v>0.45</v>
-      </c>
-      <c r="C135" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D135" s="57"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B136" s="56">
-        <f>B132/B48</f>
-        <v>0.45</v>
-      </c>
-      <c r="C136" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D136" s="57"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="B137" s="58">
-        <v>3.2</v>
-      </c>
-      <c r="C137" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D137" s="57"/>
+      <c r="D137" s="61"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B138" s="60">
-        <v>0.21072869999999999</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C138" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>182</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D138" s="61"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B139" s="60">
-        <v>1.365</v>
+        <v>0.27860000000000001</v>
       </c>
       <c r="C139" s="60" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D139" s="61"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" s="61"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B141" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="B140" s="60">
-        <f>(2*0.26/B24)</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="C140" s="92" t="s">
+      <c r="C141" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="61"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="71">
+        <v>0.12</v>
+      </c>
+      <c r="C142" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D140" s="61"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="B141" s="60">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="C141" s="60" t="s">
+      <c r="D142" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" s="72">
+        <v>0.12</v>
+      </c>
+      <c r="C143" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D141" s="61"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="60">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="C142" s="60" t="s">
+      <c r="D143" s="74"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" s="36">
+        <v>1.55</v>
+      </c>
+      <c r="C144" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="61"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B143" s="60">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="C143" s="60" t="s">
+      <c r="D144" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" s="36">
+        <v>1.77</v>
+      </c>
+      <c r="C145" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="61"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="B144" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D144" s="61"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B145" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="C145" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="61"/>
+      <c r="D145" s="37"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="B146" s="71">
-        <v>0.12</v>
-      </c>
-      <c r="C146" s="71" t="s">
+      <c r="A146" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B146" s="36">
+        <v>1.87</v>
+      </c>
+      <c r="C146" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="32" t="s">
-        <v>248</v>
-      </c>
+      <c r="D146" s="37"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="B147" s="72">
-        <v>0.12</v>
-      </c>
-      <c r="C147" s="73" t="s">
+      <c r="A147" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="36">
+        <v>-1</v>
+      </c>
+      <c r="C147" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D147" s="74"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B148" s="36">
-        <v>1.55</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D148" s="32" t="s">
-        <v>110</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B149" s="36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B150" s="36">
-        <v>2.2000000000000002</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C150" s="36" t="s">
         <v>47</v>
@@ -3693,10 +3674,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B151" s="36">
-        <v>-1</v>
+        <v>0.01</v>
       </c>
       <c r="C151" s="36" t="s">
         <v>47</v>
@@ -3705,34 +3686,34 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B152" s="36">
-        <v>4.3600000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B153" s="36">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B154" s="36">
-        <v>3.5000000000000003E-2</v>
+        <v>1.3878999999999999</v>
       </c>
       <c r="C154" s="36" t="s">
         <v>47</v>
@@ -3741,10 +3722,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B155" s="36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>47</v>
@@ -3753,803 +3734,731 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B156" s="36">
-        <v>0.8</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B157" s="36">
-        <v>0.6</v>
+        <v>-0.41</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B158" s="36">
-        <v>1.3878999999999999</v>
+        <v>-0.46100000000000002</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B159" s="36">
-        <v>-1.6541E-2</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B160" s="36">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B161" s="36">
-        <v>-0.16969999999999999</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B162" s="36">
-        <v>-6.0999999999999999E-2</v>
+        <v>30</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B163" s="36">
-        <v>-0.41</v>
+        <v>25</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B164" s="36">
-        <v>-0.46100000000000002</v>
+        <v>25</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D164" s="37"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B165" s="36">
-        <v>-0.26900000000000002</v>
+        <v>25</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D165" s="37"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B166" s="36">
-        <v>-0.45</v>
+        <v>134</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D166" s="37"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B167" s="36">
-        <v>-2.3999999999999998E-3</v>
+        <v>135</v>
+      </c>
+      <c r="B167" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D167" s="37"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B168" s="36">
-        <v>30</v>
+        <v>136</v>
+      </c>
+      <c r="B168" s="82" t="s">
+        <v>282</v>
       </c>
       <c r="C168" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="37"/>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" s="36"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B170" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C170" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D168" s="37"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="36">
-        <v>25</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D169" s="37"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B170" s="36">
-        <v>25</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D170" s="37"/>
+      <c r="D170" s="32" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B171" s="36">
-        <v>25</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D171" s="37"/>
+      <c r="A171" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C171" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" s="76"/>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B172" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C172" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D172" s="37"/>
+      <c r="A172" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B172" s="77">
+        <v>3.6156899999999999E-5</v>
+      </c>
+      <c r="C172" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D172" s="76"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B173" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="C173" s="36" t="s">
+      <c r="A173" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B173" s="75">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="C173" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D173" s="76"/>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B174" s="75">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="C174" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D173" s="37"/>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B174" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="C174" s="36" t="s">
+      <c r="D174" s="76"/>
+    </row>
+    <row r="175" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B175" s="75">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C175" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="37"/>
-    </row>
-    <row r="175" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B175" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="C175" s="40" t="s">
+      <c r="D175" s="76"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B176" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="C176" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="76"/>
+    </row>
+    <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B177" s="65">
+        <v>47.222200000000001</v>
+      </c>
+      <c r="C177" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D177" s="80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" s="66">
+        <v>3.8</v>
+      </c>
+      <c r="C178" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B179" s="66">
+        <v>-1.5</v>
+      </c>
+      <c r="C179" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D179" s="67"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="B180" s="66">
+        <v>15.24</v>
+      </c>
+      <c r="C180" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D180" s="67"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" s="68">
+        <v>7.62</v>
+      </c>
+      <c r="C181" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="D181" s="81"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B182" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B183" s="26">
+        <v>4</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" s="27"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" s="28">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D184" s="27"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B185" s="26">
+        <v>5800</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D185" s="27"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="28">
+        <v>2.4285999999999999</v>
+      </c>
+      <c r="C186" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D175" s="36"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="B176" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="C176" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D176" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="B177" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="C177" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D177" s="76"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="B178" s="77">
-        <v>3.6156899999999999E-5</v>
-      </c>
-      <c r="C178" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D178" s="76"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="B179" s="75">
-        <v>6.4400000000000004E-4</v>
-      </c>
-      <c r="C179" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D179" s="76"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="B180" s="75">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="C180" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D180" s="76"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="B181" s="75">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="C181" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D181" s="76"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="B182" s="78">
-        <v>0.3</v>
-      </c>
-      <c r="C182" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D182" s="76"/>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="B183" s="65">
-        <v>47.222200000000001</v>
-      </c>
-      <c r="C183" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="D183" s="80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="B184" s="66">
-        <v>3.8</v>
-      </c>
-      <c r="C184" s="66" t="s">
+      <c r="D186" s="27"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B187" s="28">
+        <f>B184*0.9</f>
+        <v>67.113</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D187" s="27"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B188" s="26">
+        <v>5500</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D188" s="29"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B189" s="26">
+        <v>1.33</v>
+      </c>
+      <c r="C189" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D184" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="B185" s="66">
-        <v>-1.5</v>
-      </c>
-      <c r="C185" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D185" s="67"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="B186" s="66">
-        <v>15.24</v>
-      </c>
-      <c r="C186" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="D186" s="67"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="B187" s="68">
-        <v>7.62</v>
-      </c>
-      <c r="C187" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="D187" s="81"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B189" s="26">
-        <v>4</v>
-      </c>
-      <c r="C189" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D189" s="27"/>
+      <c r="D189" s="29"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="26" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B190" s="28">
-        <v>74.569999999999993</v>
+        <v>15</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D190" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="D190" s="29"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B191" s="26">
-        <v>5800</v>
+        <v>88</v>
+      </c>
+      <c r="B191" s="28">
+        <v>75</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D191" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="D191" s="29"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B192" s="28">
-        <v>2.4285999999999999</v>
+        <v>89</v>
+      </c>
+      <c r="B192" s="26">
+        <v>1</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D192" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B193" s="28">
-        <f>B190*0.9</f>
-        <v>67.113</v>
+        <v>91</v>
+      </c>
+      <c r="B193" s="26">
+        <v>2.5</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D193" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="D193" s="29"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B194" s="26">
-        <v>5500</v>
+        <v>2.5</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D194" s="29"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B195" s="26">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D195" s="29"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B196" s="28">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="B196" s="26">
+        <v>35</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D196" s="29"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B197" s="28">
-        <v>75</v>
+        <v>96</v>
+      </c>
+      <c r="B197" s="26">
+        <v>70</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D197" s="29"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B198" s="26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B199" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C199" s="26" t="s">
-        <v>90</v>
+      <c r="A199" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B199" s="85">
+        <v>60</v>
+      </c>
+      <c r="C199" s="85" t="s">
+        <v>18</v>
       </c>
       <c r="D199" s="29"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B200" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C200" s="26" t="s">
-        <v>86</v>
+      <c r="A200" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" s="85">
+        <v>0</v>
+      </c>
+      <c r="C200" s="85" t="s">
+        <v>233</v>
       </c>
       <c r="D200" s="29"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B201" s="26">
+      <c r="A201" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" s="85">
         <v>0</v>
       </c>
-      <c r="C201" s="26" t="s">
-        <v>32</v>
+      <c r="C201" s="85" t="s">
+        <v>280</v>
       </c>
       <c r="D201" s="29"/>
     </row>
     <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B202" s="26">
-        <v>35</v>
-      </c>
-      <c r="C202" s="26" t="s">
-        <v>95</v>
+      <c r="A202" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B202" s="85">
+        <v>0</v>
+      </c>
+      <c r="C202" s="85" t="s">
+        <v>233</v>
       </c>
       <c r="D202" s="29"/>
     </row>
     <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B203" s="26">
-        <v>70</v>
-      </c>
-      <c r="C203" s="26" t="s">
-        <v>95</v>
+      <c r="A203" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="B203" s="85">
+        <v>1.2</v>
+      </c>
+      <c r="C203" s="85" t="s">
+        <v>32</v>
       </c>
       <c r="D203" s="29"/>
     </row>
     <row r="204" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B204" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="C204" s="26" t="s">
-        <v>95</v>
+      <c r="A204" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B204" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="C204" s="85" t="s">
+        <v>32</v>
       </c>
       <c r="D204" s="29"/>
     </row>
     <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="B205" s="85">
-        <v>60</v>
+        <v>1.6</v>
       </c>
       <c r="C205" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" s="29"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B206" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="86"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B207" s="31">
+        <v>1.66</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B208" s="31">
+        <v>2</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D208" s="33"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B209" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="C209" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="29"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="B206" s="85">
-        <v>0</v>
-      </c>
-      <c r="C206" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D206" s="29"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="85" t="s">
+      <c r="D209" s="33"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B210" s="34">
+        <v>98.1</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D210" s="33"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B211" s="31">
+        <v>1</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D211" s="33"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" s="35">
+        <v>0.66</v>
+      </c>
+      <c r="C212" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="33"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B213" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="C213" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B207" s="85">
-        <v>0</v>
-      </c>
-      <c r="C207" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="D207" s="29"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="B208" s="85">
-        <v>0</v>
-      </c>
-      <c r="C208" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D208" s="29"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="85" t="s">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="B209" s="85">
-        <v>1.2</v>
-      </c>
-      <c r="C209" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D209" s="29"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="B210" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="C210" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D210" s="29"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="B211" s="85">
-        <v>1.6</v>
-      </c>
-      <c r="C211" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D211" s="29"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B212" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="C212" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="86"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B213" s="31">
-        <v>1.66</v>
-      </c>
-      <c r="C213" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D213" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B214" s="31">
-        <v>2</v>
-      </c>
-      <c r="C214" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D214" s="33"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B215" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="C215" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215" s="33"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B216" s="34">
-        <v>98.1</v>
-      </c>
-      <c r="C216" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D216" s="33"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B217" s="31">
-        <v>1</v>
-      </c>
-      <c r="C217" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D217" s="33"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B218" s="35">
-        <v>0.66</v>
-      </c>
-      <c r="C218" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D218" s="33"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="B219" s="87">
+      <c r="B214" s="89">
         <v>0.3</v>
       </c>
-      <c r="C219" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D219" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="B220" s="89">
-        <v>0.3</v>
-      </c>
-      <c r="C220" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D220" s="88"/>
+      <c r="C214" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="88"/>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B145" xr:uid="{AE14DB31-8DB7-405B-8A10-313823DA5991}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141" xr:uid="{AE14DB31-8DB7-405B-8A10-313823DA5991}">
       <formula1>"Split, Plain, Slotted, Double slotted, Fowler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76 B123" xr:uid="{C300441F-F116-446A-B7C2-67C4419AF892}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76 B119" xr:uid="{C300441F-F116-446A-B7C2-67C4419AF892}">
       <formula1>"Conventional, Full movable, Custom"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{64C4C391-B12C-490E-9882-E08D10CACFCF}">
@@ -4567,16 +4476,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{68F96663-39EB-4B32-B0DE-D324564E9486}">
       <formula1>"Rectangular, With_kinks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B188" xr:uid="{EF869A3F-90F0-4788-B486-772D73ADA5CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182" xr:uid="{EF869A3F-90F0-4788-B486-772D73ADA5CF}">
       <formula1>"FOUR STROKE, TWO STROKE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B189" xr:uid="{5A5BC725-9D94-4EAC-BD35-E1AA5B1169E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B183" xr:uid="{5A5BC725-9D94-4EAC-BD35-E1AA5B1169E3}">
       <formula1>"1, 2, 3, 4, 5, 6, 8, 10, 12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B214" xr:uid="{6115C2B3-6C02-486A-8FE7-46E61D2F47C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208" xr:uid="{6115C2B3-6C02-486A-8FE7-46E61D2F47C6}">
       <formula1>"2, 3, 4, 6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B212" xr:uid="{98C4BBA8-4D99-4ACD-A07B-27DEDC454C62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206" xr:uid="{98C4BBA8-4D99-4ACD-A07B-27DEDC454C62}">
       <formula1>"Tractor, Pusher"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4586,21 +4495,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
     <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
@@ -4770,24 +4664,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4803,4 +4695,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2A3AA-ABFE-4864-A1BD-53B00A260520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D9E13-C582-4FEA-ACC5-6ECB5F636802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="284">
   <si>
     <t>field</t>
   </si>
@@ -1172,6 +1172,9 @@
 -0.0192;
 -0.0192;
 -0.0190;]</t>
+  </si>
+  <si>
+    <t>Inertia_momY</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1509,6 +1512,8 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1823,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,183 +2015,183 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="97">
         <v>1.85</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="96" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="41">
-        <v>0</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>139</v>
-      </c>
+      <c r="A16" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="17">
+        <v>513</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="41">
+        <v>0</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B18" s="41">
         <v>2000</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="C18" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B19" s="43">
         <v>4000</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="45">
-        <v>0.23</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>143</v>
-      </c>
+      <c r="C19" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="45">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="32" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="45">
+        <v>0.26</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B22" s="47">
         <v>0.25</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C22" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="91"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="D22" s="91"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="19">
-        <v>13.4</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="19">
-        <v>9.6199999999999992</v>
+        <v>13.4</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="19">
-        <v>1.5</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="19">
-        <f>B10/B23</f>
-        <v>33.582089552238806</v>
+        <v>1.5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="19">
-        <v>0.25</v>
+        <f>B10/B24</f>
+        <v>33.582089552238806</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="19">
         <v>0.33</v>
@@ -2198,7 +2203,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="19">
         <v>0.33</v>
@@ -2210,19 +2215,19 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>268</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.33</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>268</v>
@@ -2234,7 +2239,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>268</v>
@@ -2246,7 +2251,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>268</v>
@@ -2258,19 +2263,19 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="22">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>268</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22">
         <v>0</v>
@@ -2282,7 +2287,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="22">
         <v>0</v>
@@ -2293,20 +2298,20 @@
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>51</v>
+      <c r="A38" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="B38" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="C38" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="22">
         <v>1.5</v>
@@ -2318,7 +2323,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="22">
         <v>1.5</v>
@@ -2330,10 +2335,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="22">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>34</v>
@@ -2342,7 +2347,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="22">
         <v>-1.5</v>
@@ -2354,7 +2359,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="22">
         <v>-1.5</v>
@@ -2366,7 +2371,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="22">
         <v>-1.5</v>
@@ -2378,31 +2383,31 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="22">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="22">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="22">
         <v>1.4</v>
@@ -2414,7 +2419,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="22">
         <v>1.4</v>
@@ -2426,7 +2431,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="22">
         <v>1.4</v>
@@ -2438,22 +2443,22 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="22">
-        <v>4.9000000000000002E-2</v>
+        <v>1.4</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="22">
-        <v>0.4</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>59</v>
@@ -2462,10 +2467,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="22">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>59</v>
@@ -2474,19 +2479,19 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="22">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="22">
         <v>0</v>
@@ -2498,72 +2503,72 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="22">
-        <v>1.6379999999999999</v>
+        <v>0</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B57" s="22">
         <v>0</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="C57" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B58" s="23">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="63">
-        <v>6.3</v>
-      </c>
-      <c r="C58" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>186</v>
-      </c>
+      <c r="C58" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59" s="63">
-        <v>1.1000000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="C59" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="64"/>
+      <c r="D59" s="32" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="63">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C60" s="63" t="s">
         <v>32</v>
@@ -2572,10 +2577,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B61" s="63">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="C61" s="63" t="s">
         <v>32</v>
@@ -2584,84 +2589,84 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="84" t="s">
-        <v>21</v>
+        <v>189</v>
+      </c>
+      <c r="B62" s="63">
+        <v>1.4</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="84" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D63" s="64"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B65" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C65" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="64"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="65" t="s">
+      <c r="D65" s="64"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B66" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C66" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="64"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="66">
-        <v>1.97</v>
-      </c>
-      <c r="C66" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>197</v>
-      </c>
+      <c r="D66" s="64"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B67" s="66">
-        <v>2.9</v>
+        <v>1.97</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="67"/>
+        <v>30</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" s="66">
-        <v>0.68</v>
+        <v>2.9</v>
       </c>
       <c r="C68" s="66" t="s">
         <v>32</v>
@@ -2670,7 +2675,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="66">
         <v>0.68</v>
@@ -2682,10 +2687,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B70" s="66">
-        <v>3.78</v>
+        <v>0.68</v>
       </c>
       <c r="C70" s="66" t="s">
         <v>32</v>
@@ -2694,22 +2699,22 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B71" s="66">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B72" s="66">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C72" s="66" t="s">
         <v>59</v>
@@ -2718,10 +2723,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B73" s="66">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="C73" s="66" t="s">
         <v>59</v>
@@ -2730,58 +2735,58 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B74" s="66">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D74" s="67"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B75" s="66">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="B76" s="66" t="s">
-        <v>264</v>
+        <v>206</v>
+      </c>
+      <c r="B76" s="66">
+        <v>0.25</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D76" s="67"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" s="66">
-        <v>6</v>
+        <v>207</v>
+      </c>
+      <c r="B77" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D77" s="67"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B78" s="66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C78" s="66" t="s">
         <v>32</v>
@@ -2790,10 +2795,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="66">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C79" s="66" t="s">
         <v>32</v>
@@ -2802,10 +2807,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80" s="66">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="C80" s="66" t="s">
         <v>32</v>
@@ -2814,46 +2819,46 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" s="66">
-        <v>0.3</v>
+        <v>1.49</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D81" s="67"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B82" s="66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D82" s="67"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83" s="66">
         <v>0</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D83" s="67"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B84" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="66" t="s">
         <v>59</v>
@@ -2861,49 +2866,49 @@
       <c r="D84" s="67"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" s="66">
+        <v>1</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="67"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B85" s="68">
+      <c r="B86" s="68">
         <v>0</v>
       </c>
-      <c r="C85" s="69" t="s">
+      <c r="C86" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="67"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B86" s="52">
-        <v>0.72</v>
-      </c>
-      <c r="C86" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>218</v>
-      </c>
+      <c r="D86" s="67"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B87" s="52">
-        <v>1.23</v>
-      </c>
-      <c r="C87" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="53"/>
+        <v>0.91</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B88" s="52">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>32</v>
@@ -2912,10 +2917,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B89" s="52">
-        <v>0.47599999999999998</v>
+        <v>1</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>32</v>
@@ -2924,10 +2929,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90" s="52">
-        <v>0.68</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C90" s="52" t="s">
         <v>32</v>
@@ -2936,10 +2941,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91" s="52">
-        <v>3.2</v>
+        <v>0.68</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>32</v>
@@ -2948,79 +2953,79 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B92" s="52">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D92" s="53"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B93" s="52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D93" s="53"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B94" s="52">
         <v>0</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D94" s="53"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" s="52">
-        <v>0.2335363</v>
+        <v>0</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D95" s="53"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B96" s="52">
-        <v>2</v>
+        <v>0.2335363</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D96" s="53"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B97" s="52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D97" s="53"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B98" s="52">
         <v>0</v>
@@ -3032,7 +3037,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" s="52">
         <v>0</v>
@@ -3044,22 +3049,22 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B100" s="52">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="D100" s="53"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B101" s="52">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C101" s="52" t="s">
         <v>233</v>
@@ -3068,10 +3073,10 @@
     </row>
     <row r="102" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B102" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="52" t="s">
         <v>233</v>
@@ -3080,34 +3085,34 @@
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B103" s="52">
         <v>1</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D103" s="53"/>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B104" s="52">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D104" s="53"/>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" s="52">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>34</v>
@@ -3116,72 +3121,72 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106" s="52">
+        <v>20</v>
+      </c>
+      <c r="C106" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="53"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B106" s="52">
+      <c r="B107" s="52">
         <v>0</v>
       </c>
-      <c r="C106" s="52" t="s">
+      <c r="C107" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="53"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="54" t="s">
+      <c r="D107" s="53"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="54">
+      <c r="B108" s="54">
         <v>0</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C108" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D107" s="53"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" s="48">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="C108" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>147</v>
-      </c>
+      <c r="D108" s="53"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="48">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C109" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="48">
+      <c r="B110" s="48">
         <v>1.97</v>
       </c>
-      <c r="C109" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="49"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" s="48">
-        <v>0.50309999999999999</v>
-      </c>
       <c r="C110" s="48" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D110" s="49"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111" s="48">
-        <v>0.91269999999999996</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="C111" s="48" t="s">
         <v>47</v>
@@ -3190,10 +3195,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" s="48">
-        <v>0.27860000000000001</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="C112" s="48" t="s">
         <v>47</v>
@@ -3202,7 +3207,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B113" s="48">
         <v>0.27860000000000001</v>
@@ -3213,61 +3218,61 @@
       <c r="D113" s="49"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="50" t="s">
+      <c r="A114" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="48">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="49"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B115" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="49"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="52">
-        <v>1.97</v>
-      </c>
-      <c r="C115" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>155</v>
-      </c>
+      <c r="C115" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="52">
+        <v>1.97</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="B116" s="52">
+      <c r="B117" s="52">
         <v>2.9</v>
       </c>
-      <c r="C116" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" s="53"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="52">
-        <v>0</v>
-      </c>
       <c r="C117" s="52" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D117" s="53"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="52" t="s">
         <v>47</v>
@@ -3276,32 +3281,31 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="52" t="s">
-        <v>264</v>
+        <v>158</v>
+      </c>
+      <c r="B119" s="52">
+        <v>1</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D119" s="53"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B120" s="52">
-        <f>0.68/B68</f>
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="B120" s="52" t="s">
+        <v>264</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D120" s="53"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121" s="52">
         <f>0.68/B69</f>
@@ -3313,74 +3317,75 @@
       <c r="D121" s="53"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="94" t="s">
+      <c r="A122" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="52">
+        <f>0.68/B70</f>
+        <v>1</v>
+      </c>
+      <c r="C122" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="53"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="B122" s="52">
-        <f>0.75*B115</f>
+      <c r="B123" s="52">
+        <f>0.75*B116</f>
         <v>1.4775</v>
       </c>
-      <c r="C122" s="52" t="s">
+      <c r="C123" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="53"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="95" t="s">
+      <c r="D123" s="53"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="54">
+      <c r="B124" s="54">
         <v>3.78</v>
       </c>
-      <c r="C123" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D123" s="53"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B124" s="56">
-        <v>0.35</v>
-      </c>
-      <c r="C124" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D124" s="32" t="s">
-        <v>165</v>
-      </c>
+      <c r="C124" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="53"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B125" s="56">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C125" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B126" s="56">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C126" s="56" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D126" s="57"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B127" s="56">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="C127" s="56" t="s">
         <v>47</v>
@@ -3389,34 +3394,34 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B128" s="56">
-        <v>0.63</v>
+        <v>0.9</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D128" s="57"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B129" s="56">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D129" s="57"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B130" s="56">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="C130" s="56" t="s">
         <v>47</v>
@@ -3425,11 +3430,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B131" s="56">
-        <f>B128/B48</f>
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>47</v>
@@ -3438,10 +3442,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B132" s="56">
-        <f>B128/B48</f>
+        <f>B129/B49</f>
         <v>0.45</v>
       </c>
       <c r="C132" s="56" t="s">
@@ -3450,74 +3454,75 @@
       <c r="D132" s="57"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="58" t="s">
+      <c r="A133" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="56">
+        <f>B129/B49</f>
+        <v>0.45</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" s="57"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="58">
+      <c r="B134" s="58">
         <v>3.2</v>
       </c>
-      <c r="C133" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" s="57"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="B134" s="60">
-        <v>0.21072869999999999</v>
-      </c>
-      <c r="C134" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="C134" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="57"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B135" s="60">
-        <v>1.365</v>
+        <v>0.21072869999999999</v>
       </c>
       <c r="C135" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B136" s="60">
-        <f>(2*0.26/B24)</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="C136" s="92" t="s">
-        <v>47</v>
+        <v>1.365</v>
+      </c>
+      <c r="C136" s="60" t="s">
+        <v>32</v>
       </c>
       <c r="D136" s="61"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B137" s="60">
-        <v>0.50119999999999998</v>
-      </c>
-      <c r="C137" s="60" t="s">
+        <f>(2*0.26/B25)</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="C137" s="92" t="s">
         <v>47</v>
       </c>
       <c r="D137" s="61"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" s="60">
-        <v>0.27860000000000001</v>
+        <v>0.50119999999999998</v>
       </c>
       <c r="C138" s="60" t="s">
         <v>47</v>
@@ -3526,7 +3531,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B139" s="60">
         <v>0.27860000000000001</v>
@@ -3538,86 +3543,86 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="60">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="C140" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="61"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B140" s="60" t="s">
+      <c r="B141" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D140" s="61"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="62" t="s">
+      <c r="C141" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="61"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B141" s="62" t="s">
+      <c r="B142" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C141" s="62" t="s">
+      <c r="C142" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="61"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="71" t="s">
+      <c r="D142" s="61"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="71">
+      <c r="B143" s="71">
         <v>0.12</v>
       </c>
-      <c r="C142" s="71" t="s">
+      <c r="C143" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D143" s="32" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="72" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="B143" s="72">
+      <c r="B144" s="72">
         <v>0.12</v>
       </c>
-      <c r="C143" s="73" t="s">
+      <c r="C144" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="74"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B144" s="36">
-        <v>1.55</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D144" s="32" t="s">
-        <v>110</v>
-      </c>
+      <c r="D144" s="74"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B145" s="36">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="C145" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="37"/>
+      <c r="D145" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B146" s="36">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="C146" s="36" t="s">
         <v>47</v>
@@ -3626,10 +3631,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B147" s="36">
-        <v>-1</v>
+        <v>1.87</v>
       </c>
       <c r="C147" s="36" t="s">
         <v>47</v>
@@ -3638,46 +3643,46 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B148" s="36">
-        <v>4.3600000000000003</v>
+        <v>-1</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B149" s="36">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B150" s="36">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D150" s="37"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B151" s="36">
-        <v>0.01</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C151" s="36" t="s">
         <v>47</v>
@@ -3686,10 +3691,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B152" s="36">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="C152" s="36" t="s">
         <v>47</v>
@@ -3698,10 +3703,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B153" s="36">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C153" s="36" t="s">
         <v>47</v>
@@ -3710,10 +3715,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B154" s="36">
-        <v>1.3878999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C154" s="36" t="s">
         <v>47</v>
@@ -3722,10 +3727,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B155" s="36">
-        <v>0</v>
+        <v>1.3878999999999999</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>47</v>
@@ -3734,22 +3739,22 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B156" s="36">
-        <v>-6.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B157" s="36">
-        <v>-0.41</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="C157" s="36" t="s">
         <v>116</v>
@@ -3758,10 +3763,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B158" s="36">
-        <v>-0.46100000000000002</v>
+        <v>-0.41</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>116</v>
@@ -3770,10 +3775,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B159" s="36">
-        <v>-0.26900000000000002</v>
+        <v>-0.46100000000000002</v>
       </c>
       <c r="C159" s="36" t="s">
         <v>116</v>
@@ -3782,10 +3787,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="36">
-        <v>-0.45</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="C160" s="36" t="s">
         <v>116</v>
@@ -3794,10 +3799,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B161" s="36">
-        <v>-2.3999999999999998E-3</v>
+        <v>-0.45</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>116</v>
@@ -3806,22 +3811,22 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B162" s="36">
-        <v>30</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B163" s="36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>34</v>
@@ -3830,7 +3835,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B164" s="36">
         <v>25</v>
@@ -3842,7 +3847,7 @@
     </row>
     <row r="165" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="36">
         <v>25</v>
@@ -3854,10 +3859,10 @@
     </row>
     <row r="166" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B166" s="38" t="s">
-        <v>265</v>
+        <v>133</v>
+      </c>
+      <c r="B166" s="36">
+        <v>25</v>
       </c>
       <c r="C166" s="36" t="s">
         <v>34</v>
@@ -3866,22 +3871,22 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="82" t="s">
-        <v>282</v>
+        <v>135</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="C168" s="36" t="s">
         <v>47</v>
@@ -3889,49 +3894,49 @@
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="39" t="s">
+      <c r="A169" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" s="37"/>
+    </row>
+    <row r="170" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="83" t="s">
+      <c r="B170" s="83" t="s">
         <v>267</v>
       </c>
-      <c r="C169" s="40" t="s">
+      <c r="C170" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="36"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B170" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="C170" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D170" s="32" t="s">
-        <v>246</v>
-      </c>
+      <c r="D170" s="36"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B171" s="75" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C171" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D171" s="76"/>
+        <v>34</v>
+      </c>
+      <c r="D171" s="32" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="B172" s="77">
-        <v>3.6156899999999999E-5</v>
+        <v>247</v>
+      </c>
+      <c r="B172" s="75" t="s">
+        <v>248</v>
       </c>
       <c r="C172" s="75" t="s">
         <v>47</v>
@@ -3940,34 +3945,34 @@
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="B173" s="75">
-        <v>6.4400000000000004E-4</v>
+        <v>249</v>
+      </c>
+      <c r="B173" s="77">
+        <v>3.6156899999999999E-5</v>
       </c>
       <c r="C173" s="75" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D173" s="76"/>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B174" s="75">
-        <v>2.5399999999999999E-2</v>
+        <v>6.4400000000000004E-4</v>
       </c>
       <c r="C174" s="75" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="D174" s="76"/>
     </row>
     <row r="175" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B175" s="75">
-        <v>2.3300000000000001E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="C175" s="75" t="s">
         <v>47</v>
@@ -3975,198 +3980,198 @@
       <c r="D175" s="76"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="78" t="s">
+      <c r="A176" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" s="75">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C176" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="76"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="B176" s="78">
+      <c r="B177" s="78">
         <v>0.3</v>
       </c>
-      <c r="C176" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D176" s="76"/>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="65" t="s">
+      <c r="C177" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="76"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="B177" s="65">
+      <c r="B178" s="65">
         <v>47.222200000000001</v>
       </c>
-      <c r="C177" s="65" t="s">
+      <c r="C178" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="D177" s="80" t="s">
+      <c r="D178" s="80" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="B178" s="66">
-        <v>3.8</v>
-      </c>
-      <c r="C178" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D178" s="32" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B179" s="66">
-        <v>-1.5</v>
+        <v>3.8</v>
       </c>
       <c r="C179" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D179" s="67"/>
+      <c r="D179" s="32" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="B180" s="66">
+        <v>-1.5</v>
+      </c>
+      <c r="C180" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D180" s="67"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="B180" s="66">
+      <c r="B181" s="66">
         <v>15.24</v>
       </c>
-      <c r="C180" s="66" t="s">
+      <c r="C181" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="D180" s="67"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="68" t="s">
+      <c r="D181" s="67"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="B181" s="68">
+      <c r="B182" s="68">
         <v>7.62</v>
       </c>
-      <c r="C181" s="68" t="s">
+      <c r="C182" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="D181" s="81"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B182" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="D182" s="81"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B183" s="26">
+      <c r="B184" s="26">
         <v>4</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C184" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="D183" s="27"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B184" s="28">
-        <v>74.569999999999993</v>
-      </c>
-      <c r="C184" s="26" t="s">
-        <v>79</v>
       </c>
       <c r="D184" s="27"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B185" s="26">
-        <v>5800</v>
+        <v>78</v>
+      </c>
+      <c r="B185" s="28">
+        <v>74.569999999999993</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D185" s="27"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B186" s="28">
-        <v>2.4285999999999999</v>
+        <v>80</v>
+      </c>
+      <c r="B186" s="26">
+        <v>5800</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D186" s="27"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B187" s="28">
-        <f>B184*0.9</f>
-        <v>67.113</v>
+        <v>2.4285999999999999</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D187" s="27"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B188" s="26">
-        <v>5500</v>
+        <v>83</v>
+      </c>
+      <c r="B188" s="28">
+        <f>B185*0.9</f>
+        <v>67.113</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D188" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="D188" s="27"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B189" s="26">
-        <v>1.33</v>
+        <v>5500</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D189" s="29"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B190" s="28">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="B190" s="26">
+        <v>1.33</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D190" s="29"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B191" s="28">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C191" s="26" t="s">
         <v>18</v>
@@ -4175,22 +4180,22 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B192" s="26">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="B192" s="28">
+        <v>75</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B193" s="26">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C193" s="26" t="s">
         <v>90</v>
@@ -4199,46 +4204,46 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B194" s="26">
         <v>2.5</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D194" s="29"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B195" s="26">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D195" s="29"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B196" s="26">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D196" s="29"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B197" s="26">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C197" s="26" t="s">
         <v>95</v>
@@ -4247,10 +4252,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B198" s="26">
-        <v>2.5</v>
+        <v>70</v>
       </c>
       <c r="C198" s="26" t="s">
         <v>95</v>
@@ -4258,71 +4263,71 @@
       <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="B199" s="85">
-        <v>60</v>
-      </c>
-      <c r="C199" s="85" t="s">
-        <v>18</v>
+      <c r="A199" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B199" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="D199" s="29"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="85" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="B200" s="85">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C200" s="85" t="s">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="D200" s="29"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B201" s="85">
         <v>0</v>
       </c>
       <c r="C201" s="85" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="D201" s="29"/>
     </row>
     <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B202" s="85">
         <v>0</v>
       </c>
       <c r="C202" s="85" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="D202" s="29"/>
     </row>
     <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B203" s="85">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C203" s="85" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D203" s="29"/>
     </row>
     <row r="204" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B204" s="85">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C204" s="85" t="s">
         <v>32</v>
@@ -4331,134 +4336,146 @@
     </row>
     <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B205" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="C205" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" s="29"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="B205" s="85">
+      <c r="B206" s="85">
         <v>1.6</v>
       </c>
-      <c r="C205" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D205" s="29"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="30" t="s">
+      <c r="C206" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="29"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="B206" s="30" t="s">
+      <c r="B207" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C206" s="30" t="s">
+      <c r="C207" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="86"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B207" s="31">
-        <v>1.66</v>
-      </c>
-      <c r="C207" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D207" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="D207" s="86"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B208" s="31">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D208" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B209" s="31">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D209" s="33"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B210" s="34">
-        <v>98.1</v>
+        <v>103</v>
+      </c>
+      <c r="B210" s="31">
+        <v>3.3</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D210" s="33"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B211" s="34">
+        <v>98.1</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D211" s="33"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B211" s="31">
+      <c r="B212" s="31">
         <v>1</v>
       </c>
-      <c r="C211" s="31" t="s">
+      <c r="C212" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D211" s="33"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="35" t="s">
+      <c r="D212" s="33"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B212" s="35">
+      <c r="B213" s="35">
         <v>0.66</v>
       </c>
-      <c r="C212" s="35" t="s">
+      <c r="C213" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D212" s="33"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="87" t="s">
+      <c r="D213" s="33"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="B213" s="87">
+      <c r="B214" s="87">
         <v>0.3</v>
       </c>
-      <c r="C213" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D213" s="32" t="s">
+      <c r="C214" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="32" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="89" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="B214" s="89">
+      <c r="B215" s="89">
         <v>0.3</v>
       </c>
-      <c r="C214" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D214" s="88"/>
+      <c r="C215" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" s="88"/>
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B141" xr:uid="{AE14DB31-8DB7-405B-8A10-313823DA5991}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142" xr:uid="{AE14DB31-8DB7-405B-8A10-313823DA5991}">
       <formula1>"Split, Plain, Slotted, Double slotted, Fowler"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76 B119" xr:uid="{C300441F-F116-446A-B7C2-67C4419AF892}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77 B120" xr:uid="{C300441F-F116-446A-B7C2-67C4419AF892}">
       <formula1>"Conventional, Full movable, Custom"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{64C4C391-B12C-490E-9882-E08D10CACFCF}">
@@ -4473,19 +4490,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{B1CA99B6-531C-4BD9-A2C9-62F759AF419E}">
       <formula1>"Single fin, Double fin, Multiple fin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22" xr:uid="{68F96663-39EB-4B32-B0DE-D324564E9486}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{68F96663-39EB-4B32-B0DE-D324564E9486}">
       <formula1>"Rectangular, With_kinks"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182" xr:uid="{EF869A3F-90F0-4788-B486-772D73ADA5CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B183" xr:uid="{EF869A3F-90F0-4788-B486-772D73ADA5CF}">
       <formula1>"FOUR STROKE, TWO STROKE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B183" xr:uid="{5A5BC725-9D94-4EAC-BD35-E1AA5B1169E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184" xr:uid="{5A5BC725-9D94-4EAC-BD35-E1AA5B1169E3}">
       <formula1>"1, 2, 3, 4, 5, 6, 8, 10, 12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208" xr:uid="{6115C2B3-6C02-486A-8FE7-46E61D2F47C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B209" xr:uid="{6115C2B3-6C02-486A-8FE7-46E61D2F47C6}">
       <formula1>"2, 3, 4, 6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206" xr:uid="{98C4BBA8-4D99-4ACD-A07B-27DEDC454C62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B207" xr:uid="{98C4BBA8-4D99-4ACD-A07B-27DEDC454C62}">
       <formula1>"Tractor, Pusher"</formula1>
     </dataValidation>
   </dataValidations>

--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D9E13-C582-4FEA-ACC5-6ECB5F636802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881EB32-FF0E-4A71-9B46-07CEBE1FA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2542,7 @@
         <v>72</v>
       </c>
       <c r="B58" s="23">
-        <v>0.16500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>32</v>
@@ -2554,7 +2554,7 @@
         <v>185</v>
       </c>
       <c r="B59" s="63">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="C59" s="63" t="s">
         <v>32</v>
@@ -2786,7 +2786,7 @@
         <v>208</v>
       </c>
       <c r="B78" s="66">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C78" s="66" t="s">
         <v>32</v>
@@ -2908,7 +2908,7 @@
         <v>219</v>
       </c>
       <c r="B88" s="52">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>32</v>
@@ -2920,7 +2920,7 @@
         <v>220</v>
       </c>
       <c r="B89" s="52">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>32</v>
@@ -3124,7 +3124,7 @@
         <v>238</v>
       </c>
       <c r="B106" s="52">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C106" s="52" t="s">
         <v>34</v>
@@ -3186,7 +3186,7 @@
         <v>149</v>
       </c>
       <c r="B111" s="48">
-        <v>0.50309999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="C111" s="48" t="s">
         <v>47</v>
@@ -3198,7 +3198,7 @@
         <v>150</v>
       </c>
       <c r="B112" s="48">
-        <v>0.91269999999999996</v>
+        <v>0.99</v>
       </c>
       <c r="C112" s="48" t="s">
         <v>47</v>
@@ -3458,8 +3458,7 @@
         <v>173</v>
       </c>
       <c r="B133" s="56">
-        <f>B129/B49</f>
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="C133" s="56" t="s">
         <v>47</v>
@@ -4512,6 +4511,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
     <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
@@ -4681,22 +4695,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4712,21 +4728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881EB32-FF0E-4A71-9B46-07CEBE1FA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74891C48-2566-447F-8F88-A74F87BF6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="292">
   <si>
     <t>field</t>
   </si>
@@ -1175,6 +1175,30 @@
   </si>
   <si>
     <t>Inertia_momY</t>
+  </si>
+  <si>
+    <t>x_main_undercarriage_pos</t>
+  </si>
+  <si>
+    <t>y_main_undercarriage_pos</t>
+  </si>
+  <si>
+    <t>Fuselage diameter percentage</t>
+  </si>
+  <si>
+    <t>z_main_undercarriage_pos</t>
+  </si>
+  <si>
+    <t>x_nose_undercarriage_pos</t>
+  </si>
+  <si>
+    <t>y_nose_undercarriage_pos</t>
+  </si>
+  <si>
+    <t>z_nose_undercarriage_pos</t>
+  </si>
+  <si>
+    <t>wheel_width</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1503,7 +1527,6 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1514,6 +1537,8 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1828,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,13 +2040,13 @@
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="96">
         <v>1.85</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="95" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="15"/>
@@ -2112,7 +2137,7 @@
       <c r="C22" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="90"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -2810,7 +2835,7 @@
         <v>210</v>
       </c>
       <c r="B80" s="66">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="C80" s="66" t="s">
         <v>32</v>
@@ -2908,7 +2933,7 @@
         <v>219</v>
       </c>
       <c r="B88" s="52">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>32</v>
@@ -3064,7 +3089,7 @@
         <v>232</v>
       </c>
       <c r="B101" s="52">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C101" s="52" t="s">
         <v>233</v>
@@ -3156,7 +3181,7 @@
       <c r="D108" s="53"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="93" t="s">
+      <c r="A109" s="92" t="s">
         <v>146</v>
       </c>
       <c r="B109" s="48">
@@ -3170,7 +3195,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="93" t="s">
+      <c r="A110" s="92" t="s">
         <v>148</v>
       </c>
       <c r="B110" s="48">
@@ -3242,7 +3267,7 @@
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="94" t="s">
+      <c r="A116" s="93" t="s">
         <v>154</v>
       </c>
       <c r="B116" s="52">
@@ -3256,7 +3281,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="94" t="s">
+      <c r="A117" s="93" t="s">
         <v>156</v>
       </c>
       <c r="B117" s="52">
@@ -3330,7 +3355,7 @@
       <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="94" t="s">
+      <c r="A123" s="93" t="s">
         <v>162</v>
       </c>
       <c r="B123" s="52">
@@ -3343,7 +3368,7 @@
       <c r="D123" s="53"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="95" t="s">
+      <c r="A124" s="94" t="s">
         <v>163</v>
       </c>
       <c r="B124" s="54">
@@ -3511,7 +3536,7 @@
         <f>(2*0.26/B25)</f>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="C137" s="92" t="s">
+      <c r="C137" s="91" t="s">
         <v>47</v>
       </c>
       <c r="D137" s="61"/>
@@ -4444,13 +4469,13 @@
       <c r="D213" s="33"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="87" t="s">
+      <c r="A214" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="B214" s="87">
+      <c r="B214" s="97">
         <v>0.3</v>
       </c>
-      <c r="C214" s="87" t="s">
+      <c r="C214" s="97" t="s">
         <v>32</v>
       </c>
       <c r="D214" s="32" t="s">
@@ -4458,16 +4483,100 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="89" t="s">
+      <c r="A215" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="B215" s="89">
+      <c r="B215" s="97">
         <v>0.3</v>
       </c>
-      <c r="C215" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D215" s="88"/>
+      <c r="C215" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" s="87"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B216" s="97">
+        <v>3.6</v>
+      </c>
+      <c r="C216" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D216" s="87"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B217" s="97">
+        <v>1.3</v>
+      </c>
+      <c r="C217" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D217" s="87"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="B218" s="97">
+        <v>-1.25</v>
+      </c>
+      <c r="C218" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D218" s="87"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="B219" s="97">
+        <v>1.2</v>
+      </c>
+      <c r="C219" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D219" s="87"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="B220" s="97">
+        <v>0</v>
+      </c>
+      <c r="C220" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D220" s="87"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="B221" s="97">
+        <v>-1.25</v>
+      </c>
+      <c r="C221" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D221" s="87"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B222" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="C222" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D222" s="87"/>
     </row>
   </sheetData>
   <dataValidations count="11">
@@ -4511,21 +4620,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
     <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
@@ -4695,24 +4789,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4728,4 +4820,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74891C48-2566-447F-8F88-A74F87BF6BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7186049F-D962-419A-BC1D-0DBC348AEA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B8085C-DBEF-4A79-B728-1C6218494374}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4620,6 +4620,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
     <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
@@ -4789,22 +4804,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4820,21 +4837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/initialization/TecnamP92_input.xlsx
+++ b/initialization/TecnamP92_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claum\OneDrive\Desktop\TesiMagistrale\tesi-magistrale-claudio-mirabella\initialization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7186049F-D962-419A-BC1D-0DBC348AEA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5F73A-E3AC-48C8-92C7-CA6550E168E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
+    <workbookView xWindow="3315" yWindow="1665" windowWidth="15375" windowHeight="7995" xr2:uid="{CE78F296-029D-4319-9163-0EA223876FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -80,9 +79,6 @@
   </si>
   <si>
     <t>Airloads_flag</t>
-  </si>
-  <si>
-    <t>OPEN VSP</t>
   </si>
   <si>
     <t>vertical_tail_flag</t>
@@ -1199,6 +1195,9 @@
   </si>
   <si>
     <t>wheel_width</t>
+  </si>
+  <si>
+    <t>SCHRENK</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -1922,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1958,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1967,10 +1966,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>8</v>
@@ -1979,681 +1978,681 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="13">
         <v>450</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="14">
         <v>281</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="14">
         <v>169</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14">
         <v>50.5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="14">
         <v>180</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="96">
         <v>1.85</v>
       </c>
       <c r="C15" s="95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="17">
         <v>513</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="41">
         <v>0</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="41">
         <v>2000</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="43">
         <v>4000</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="45">
         <v>0.23</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="45">
         <v>0.26</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="47">
         <v>0.25</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="90"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="19">
         <v>13.4</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="19">
         <v>9.6199999999999992</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="19">
         <v>1.5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="19">
         <f>B10/B24</f>
         <v>33.582089552238806</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="19">
         <v>0.25</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="19">
         <v>0.33</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="19">
         <v>0.33</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="19">
         <v>0.33</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="22">
         <v>0</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="22">
         <v>0</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="22">
         <v>0</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="22">
         <v>1.5</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="22">
         <v>1.5</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="22">
         <v>1.5</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="22">
         <v>-1.5</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="22">
         <v>-1.5</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="22">
         <v>-1.5</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="22">
         <v>-1.5</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="22">
         <v>0.25</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="22">
         <v>1.4</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="22">
         <v>1.4</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="22">
         <v>1.4</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="22">
         <v>1.4</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="22">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="22">
         <v>0.4</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="22">
         <v>0.12</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="22">
         <v>0</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="22">
         <v>0</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="22">
         <v>1.6379999999999999</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="22">
         <v>0</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="23">
         <v>0.7</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B59" s="63">
         <v>6.6</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="63">
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="64"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="63">
         <v>2.5</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="64"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B62" s="63">
         <v>1.4</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="64"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="64"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="63" t="s">
         <v>192</v>
-      </c>
-      <c r="B65" s="63" t="s">
-        <v>193</v>
       </c>
       <c r="C65" s="63" t="s">
         <v>8</v>
@@ -2662,10 +2661,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="65" t="s">
         <v>194</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>195</v>
       </c>
       <c r="C66" s="65" t="s">
         <v>8</v>
@@ -2674,132 +2673,132 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B67" s="66">
         <v>1.97</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="66">
         <v>2.9</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="67"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" s="66">
         <v>0.68</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="67"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" s="66">
         <v>0.68</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="67"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B71" s="66">
         <v>3.78</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B72" s="66">
         <v>0</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72" s="67"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B73" s="66">
         <v>0.2</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="67"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B74" s="66">
         <v>0.12</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" s="67"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B75" s="66">
         <v>0</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="67"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B76" s="66">
         <v>0.25</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" s="67"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="66" t="s">
         <v>8</v>
@@ -2808,237 +2807,237 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="66">
         <v>6.5</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="67"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B79" s="66">
         <v>0</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="67"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B80" s="66">
         <v>0.7</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="67"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B81" s="66">
         <v>1.49</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="67"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B82" s="66">
         <v>0.3</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D82" s="67"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B83" s="66">
         <v>0</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="67"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B84" s="66">
         <v>0</v>
       </c>
       <c r="C84" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" s="67"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B85" s="66">
         <v>1</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="67"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B86" s="68">
         <v>0</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="67"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B87" s="52">
         <v>0.91</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B88" s="52">
         <v>1.3</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D88" s="53"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B89" s="52">
         <v>1.3</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="53"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B90" s="52">
         <v>0.47599999999999998</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" s="53"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91" s="52">
         <v>0.68</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" s="53"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B92" s="52">
         <v>3.2</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="53"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B93" s="52">
         <v>15</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="53"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B94" s="52">
         <v>0</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94" s="53"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B95" s="52">
         <v>0</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="53"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B96" s="52">
         <v>0.2335363</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" s="53"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B97" s="52">
         <v>2</v>
@@ -3050,278 +3049,278 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B98" s="52">
         <v>0</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" s="53"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B99" s="52">
         <v>0</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" s="53"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B100" s="52">
         <v>0</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" s="53"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B101" s="52">
         <v>0.9</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D101" s="53"/>
     </row>
     <row r="102" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B102" s="52">
         <v>0</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D102" s="53"/>
     </row>
     <row r="103" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" s="52">
         <v>1</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D103" s="53"/>
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B104" s="52">
         <v>1</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="53"/>
     </row>
     <row r="105" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B105" s="52">
         <v>15</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="53"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B106" s="52">
         <v>25</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" s="53"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B107" s="52">
         <v>0</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107" s="53"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B108" s="54">
         <v>0</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108" s="53"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" s="48">
         <v>0.71399999999999997</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="48">
         <v>1.97</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="49"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="48">
         <v>0.505</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" s="49"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="48">
         <v>0.99</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D112" s="49"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="48">
         <v>0.27860000000000001</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D113" s="49"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="48">
         <v>0.27860000000000001</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D114" s="49"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115" s="49"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="52">
         <v>1.97</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B117" s="52">
         <v>2.9</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117" s="53"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" s="52">
         <v>0</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D118" s="53"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B119" s="52">
         <v>1</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D119" s="53"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B120" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C120" s="52" t="s">
         <v>8</v>
@@ -3330,271 +3329,271 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B121" s="52">
         <f>0.68/B69</f>
         <v>1</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D121" s="53"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="52">
         <f>0.68/B70</f>
         <v>1</v>
       </c>
       <c r="C122" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D122" s="53"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="52">
         <f>0.75*B116</f>
         <v>1.4775</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="53"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" s="54">
         <v>3.78</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D124" s="53"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125" s="56">
         <v>0.35</v>
       </c>
       <c r="C125" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" s="56">
         <v>1</v>
       </c>
       <c r="C126" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D126" s="57"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127" s="56">
         <v>0.1</v>
       </c>
       <c r="C127" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127" s="57"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128" s="56">
         <v>0.9</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D128" s="57"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129" s="56">
         <v>0.63</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" s="57"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130" s="56">
         <v>0.48</v>
       </c>
       <c r="C130" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D130" s="57"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131" s="56">
         <v>0.8</v>
       </c>
       <c r="C131" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D131" s="57"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132" s="56">
         <f>B129/B49</f>
         <v>0.45</v>
       </c>
       <c r="C132" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D132" s="57"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133" s="56">
         <v>0.34</v>
       </c>
       <c r="C133" s="56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D133" s="57"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134" s="58">
         <v>3.2</v>
       </c>
       <c r="C134" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D134" s="57"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="60">
         <v>0.21072869999999999</v>
       </c>
       <c r="C135" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B136" s="60">
         <v>1.365</v>
       </c>
       <c r="C136" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D136" s="61"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B137" s="60">
         <f>(2*0.26/B25)</f>
         <v>5.4054054054054057E-2</v>
       </c>
       <c r="C137" s="91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D137" s="61"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B138" s="60">
         <v>0.50119999999999998</v>
       </c>
       <c r="C138" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D138" s="61"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B139" s="60">
         <v>0.27860000000000001</v>
       </c>
       <c r="C139" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D139" s="61"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B140" s="60">
         <v>0.27860000000000001</v>
       </c>
       <c r="C140" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D140" s="61"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B141" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="61"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" s="62" t="s">
         <v>183</v>
-      </c>
-      <c r="B142" s="62" t="s">
-        <v>184</v>
       </c>
       <c r="C142" s="62" t="s">
         <v>8</v>
@@ -3603,791 +3602,791 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B143" s="71">
         <v>0.12</v>
       </c>
       <c r="C143" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B144" s="72">
         <v>0.12</v>
       </c>
       <c r="C144" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D144" s="74"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B145" s="36">
         <v>1.55</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B146" s="36">
         <v>1.77</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D146" s="37"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B147" s="36">
         <v>1.87</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147" s="37"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B148" s="36">
         <v>-1</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148" s="37"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B149" s="36">
         <v>4.3600000000000003</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D149" s="37"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B150" s="36">
         <v>0</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D150" s="37"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B151" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D151" s="37"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B152" s="36">
         <v>0.01</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D152" s="37"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B153" s="36">
         <v>0.8</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D153" s="37"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B154" s="36">
         <v>0.6</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D154" s="37"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B155" s="36">
         <v>1.3878999999999999</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155" s="37"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B156" s="36">
         <v>0</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D156" s="37"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B157" s="36">
         <v>-6.0999999999999999E-2</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B158" s="36">
         <v>-0.41</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D158" s="37"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B159" s="36">
         <v>-0.46100000000000002</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D159" s="37"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B160" s="36">
         <v>-0.26900000000000002</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B161" s="36">
         <v>-0.45</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D161" s="37"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B162" s="36">
         <v>-2.3999999999999998E-3</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D162" s="37"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B163" s="36">
         <v>30</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163" s="37"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B164" s="36">
         <v>25</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D164" s="37"/>
     </row>
     <row r="165" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B165" s="36">
         <v>25</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D165" s="37"/>
     </row>
     <row r="166" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" s="36">
         <v>25</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="37"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="37"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B168" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D168" s="37"/>
     </row>
     <row r="169" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B169" s="82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D169" s="37"/>
     </row>
     <row r="170" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B170" s="83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C170" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D170" s="36"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="B171" s="75" t="s">
+      <c r="C171" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="C171" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D171" s="32" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B172" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="B172" s="75" t="s">
-        <v>248</v>
-      </c>
       <c r="C172" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D172" s="76"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B173" s="77">
         <v>3.6156899999999999E-5</v>
       </c>
       <c r="C173" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D173" s="76"/>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B174" s="75">
         <v>6.4400000000000004E-4</v>
       </c>
       <c r="C174" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D174" s="76"/>
     </row>
     <row r="175" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B175" s="75">
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="C175" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D175" s="76"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B176" s="75">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C176" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D176" s="76"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B177" s="78">
         <v>0.3</v>
       </c>
       <c r="C177" s="79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177" s="76"/>
     </row>
     <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B178" s="65">
         <v>47.222200000000001</v>
       </c>
       <c r="C178" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D178" s="80" t="s">
         <v>255</v>
-      </c>
-      <c r="D178" s="80" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B179" s="66">
         <v>3.8</v>
       </c>
       <c r="C179" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D179" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B180" s="66">
         <v>-1.5</v>
       </c>
       <c r="C180" s="66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D180" s="67"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B181" s="66">
         <v>15.24</v>
       </c>
       <c r="C181" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D181" s="67"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B182" s="68">
         <v>7.62</v>
       </c>
       <c r="C182" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D182" s="81"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B183" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="B183" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="C183" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B184" s="26">
         <v>4</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D184" s="27"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B185" s="28">
         <v>74.569999999999993</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D185" s="27"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B186" s="26">
         <v>5800</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D186" s="27"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B187" s="28">
         <v>2.4285999999999999</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D187" s="27"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B188" s="28">
         <f>B185*0.9</f>
         <v>67.113</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D188" s="27"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B189" s="26">
         <v>5500</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D189" s="29"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B190" s="26">
         <v>1.33</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D190" s="29"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B191" s="28">
         <v>15</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D191" s="29"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B192" s="28">
         <v>75</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D192" s="29"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B193" s="26">
         <v>1</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D193" s="29"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B194" s="26">
         <v>2.5</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D194" s="29"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B195" s="26">
         <v>2.5</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D195" s="29"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B196" s="26">
         <v>0</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D196" s="29"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B197" s="26">
         <v>35</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D197" s="29"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B198" s="26">
         <v>70</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D198" s="29"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B199" s="26">
         <v>2.5</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D199" s="29"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B200" s="85">
         <v>60</v>
       </c>
       <c r="C200" s="85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D200" s="29"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B201" s="85">
         <v>0</v>
       </c>
       <c r="C201" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D201" s="29"/>
     </row>
     <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B202" s="85">
         <v>0</v>
       </c>
       <c r="C202" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D202" s="29"/>
     </row>
     <row r="203" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B203" s="85">
         <v>0</v>
       </c>
       <c r="C203" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D203" s="29"/>
     </row>
     <row r="204" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B204" s="85">
         <v>1.2</v>
       </c>
       <c r="C204" s="85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D204" s="29"/>
     </row>
     <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B205" s="85">
         <v>0.8</v>
       </c>
       <c r="C205" s="85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D205" s="29"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B206" s="85">
         <v>1.6</v>
       </c>
       <c r="C206" s="85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D206" s="29"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B207" s="30" t="s">
         <v>275</v>
-      </c>
-      <c r="B207" s="30" t="s">
-        <v>276</v>
       </c>
       <c r="C207" s="30" t="s">
         <v>8</v>
@@ -4396,185 +4395,185 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B208" s="31">
         <v>1.66</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B209" s="31">
         <v>2</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D209" s="33"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B210" s="31">
         <v>3.3</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D210" s="33"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B211" s="34">
         <v>98.1</v>
       </c>
       <c r="C211" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D211" s="33"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B212" s="31">
         <v>1</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D212" s="33"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B213" s="35">
         <v>0.66</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D213" s="33"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B214" s="97">
         <v>0.3</v>
       </c>
       <c r="C214" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D214" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B215" s="97">
         <v>0.3</v>
       </c>
       <c r="C215" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D215" s="87"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B216" s="97">
         <v>3.6</v>
       </c>
       <c r="C216" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D216" s="87"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="97">
         <v>1.3</v>
       </c>
       <c r="C217" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D217" s="87"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B218" s="97">
         <v>-1.25</v>
       </c>
       <c r="C218" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D218" s="87"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B219" s="97">
         <v>1.2</v>
       </c>
       <c r="C219" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D219" s="87"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B220" s="97">
         <v>0</v>
       </c>
       <c r="C220" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D220" s="87"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B221" s="97">
         <v>-1.25</v>
       </c>
       <c r="C221" s="97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D221" s="87"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B222" s="88">
         <v>0.1</v>
       </c>
       <c r="C222" s="89" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D222" s="87"/>
     </row>
@@ -4620,21 +4619,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ADEDA064E7272B44AAE37BAA6CD7FE3B" ma:contentTypeVersion="8" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2d80b812441223625dff242ce84ff698">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ed5f3a1-937f-4f8d-a024-7e291820fcff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a496629542ab54b55afabb88d9087217" ns2:_="">
     <xsd:import namespace="5ed5f3a1-937f-4f8d-a024-7e291820fcff"/>
@@ -4804,24 +4788,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701D7F10-606B-4519-A327-4429D166EF78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4837,4 +4819,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5011C101-3E1F-41A7-9B66-51A81523BBF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D941D3B3-02DE-4D2A-81A9-FA0B5BB9B0E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>